--- a/csdata/Fe/SI/Fe11+.xlsx
+++ b/csdata/Fe/SI/Fe11+.xlsx
@@ -1,17 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gmondeel/Documents/CfA/Chandra/CHANDRA-Rates/csdata/Fe/SI/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E91218C-172E-7D40-BAEE-69FF040E4366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Energy (eV)</t>
   </si>
@@ -30,30 +52,45 @@
   <si>
     <t>ADDENDUM: "STORAGE RING CROSS SECTION MEASUREMENTS FOR ELECTRON IMPACT IONIZATION OF Fe11 + FORMING Fe12 + AND Fe13 + Hahn 2011</t>
   </si>
+  <si>
+    <t>Unc at peak</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -62,54 +99,54 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -299,20 +336,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z524"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -328,24 +370,30 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="F1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
-        <v>255.0</v>
+        <v>255</v>
       </c>
       <c r="B2" s="4">
-        <v>3.69E-20</v>
+        <v>3.6899999999999997E-20</v>
       </c>
       <c r="C2" s="4">
-        <v>2.73E-20</v>
+        <v>2.7299999999999997E-20</v>
       </c>
       <c r="D2" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2">
+        <f>_xlfn.XLOOKUP(MAX(B:B),B:B,C:C)/MAX(B:B)</f>
+        <v>2.8571428571428571E-3</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -367,12 +415,12 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
-        <v>260.0</v>
+        <v>260</v>
       </c>
       <c r="B3" s="4">
-        <v>2.44E-20</v>
+        <v>2.4400000000000001E-20</v>
       </c>
       <c r="C3" s="4">
         <v>2.02E-20</v>
@@ -401,15 +449,15 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
-        <v>265.0</v>
+        <v>265</v>
       </c>
       <c r="B4" s="4">
         <v>4.46E-20</v>
       </c>
       <c r="C4" s="4">
-        <v>1.91E-20</v>
+        <v>1.9099999999999999E-20</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -435,15 +483,15 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
-        <v>270.0</v>
+        <v>270</v>
       </c>
       <c r="B5" s="4">
-        <v>-2.23E-21</v>
+        <v>-2.2300000000000001E-21</v>
       </c>
       <c r="C5" s="4">
-        <v>1.91E-20</v>
+        <v>1.9099999999999999E-20</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -469,15 +517,15 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
-        <v>275.0</v>
+        <v>275</v>
       </c>
       <c r="B6" s="4">
-        <v>-2.39E-20</v>
+        <v>-2.3899999999999999E-20</v>
       </c>
       <c r="C6" s="4">
-        <v>1.97E-20</v>
+        <v>1.9700000000000001E-20</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -503,15 +551,15 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
-        <v>280.0</v>
+        <v>280</v>
       </c>
       <c r="B7" s="4">
-        <v>1.96E-20</v>
+        <v>1.9600000000000001E-20</v>
       </c>
       <c r="C7" s="4">
-        <v>1.91E-20</v>
+        <v>1.9099999999999999E-20</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="2"/>
@@ -537,12 +585,12 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
-        <v>285.0</v>
+        <v>285</v>
       </c>
       <c r="B8" s="4">
-        <v>4.4E-21</v>
+        <v>4.4000000000000001E-21</v>
       </c>
       <c r="C8" s="4">
         <v>1.95E-20</v>
@@ -571,15 +619,15 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
-        <v>290.0</v>
+        <v>290</v>
       </c>
       <c r="B9" s="4">
-        <v>2.8E-20</v>
+        <v>2.8000000000000003E-20</v>
       </c>
       <c r="C9" s="4">
-        <v>1.97E-20</v>
+        <v>1.9700000000000001E-20</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -605,15 +653,15 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
-        <v>295.0</v>
+        <v>295</v>
       </c>
       <c r="B10" s="4">
         <v>-2.22E-20</v>
       </c>
       <c r="C10" s="4">
-        <v>1.97E-20</v>
+        <v>1.9700000000000001E-20</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="2"/>
@@ -639,15 +687,15 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="B11" s="4">
-        <v>-1.29E-20</v>
+        <v>-1.2899999999999999E-20</v>
       </c>
       <c r="C11" s="4">
-        <v>1.81E-20</v>
+        <v>1.8099999999999999E-20</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="5"/>
@@ -673,12 +721,12 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
-        <v>305.0</v>
+        <v>305</v>
       </c>
       <c r="B12" s="4">
-        <v>-1.88E-20</v>
+        <v>-1.8800000000000001E-20</v>
       </c>
       <c r="C12" s="4">
         <v>1.3E-20</v>
@@ -707,12 +755,12 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
-        <v>310.0</v>
+        <v>310</v>
       </c>
       <c r="B13" s="4">
-        <v>-9.41E-21</v>
+        <v>-9.4099999999999997E-21</v>
       </c>
       <c r="C13" s="4">
         <v>1.35E-20</v>
@@ -741,12 +789,12 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
-        <v>315.0</v>
+        <v>315</v>
       </c>
       <c r="B14" s="4">
-        <v>-6.35E-21</v>
+        <v>-6.3500000000000002E-21</v>
       </c>
       <c r="C14" s="4">
         <v>1.32E-20</v>
@@ -775,15 +823,15 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
-        <v>320.0</v>
+        <v>320</v>
       </c>
       <c r="B15" s="4">
         <v>1.12E-20</v>
       </c>
       <c r="C15" s="4">
-        <v>1.33E-20</v>
+        <v>1.3300000000000001E-20</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="5"/>
@@ -809,9 +857,9 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
-        <v>325.0</v>
+        <v>325</v>
       </c>
       <c r="B16" s="4">
         <v>-1.76E-20</v>
@@ -843,15 +891,15 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
-        <v>330.0</v>
+        <v>330</v>
       </c>
       <c r="B17" s="4">
         <v>2.13E-20</v>
       </c>
       <c r="C17" s="4">
-        <v>1.39E-20</v>
+        <v>1.3900000000000001E-20</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="5"/>
@@ -877,15 +925,15 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
-        <v>335.0</v>
+        <v>335</v>
       </c>
       <c r="B18" s="4">
-        <v>4.24E-20</v>
+        <v>4.2399999999999999E-20</v>
       </c>
       <c r="C18" s="4">
-        <v>1.33E-20</v>
+        <v>1.3300000000000001E-20</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -911,15 +959,15 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
-        <v>340.0</v>
+        <v>340</v>
       </c>
       <c r="B19" s="4">
-        <v>7.02E-20</v>
+        <v>7.0199999999999995E-20</v>
       </c>
       <c r="C19" s="4">
-        <v>1.4E-20</v>
+        <v>1.4000000000000001E-20</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -945,9 +993,9 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
-        <v>345.0</v>
+        <v>345</v>
       </c>
       <c r="B20" s="4">
         <v>1.13E-19</v>
@@ -979,15 +1027,15 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="B21" s="4">
-        <v>1.49E-19</v>
+        <v>1.4900000000000001E-19</v>
       </c>
       <c r="C21" s="4">
-        <v>1.28E-20</v>
+        <v>1.2800000000000001E-20</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -1013,15 +1061,15 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
-        <v>355.0</v>
+        <v>355</v>
       </c>
       <c r="B22" s="4">
         <v>1.82E-19</v>
       </c>
       <c r="C22" s="4">
-        <v>1.14E-20</v>
+        <v>1.1399999999999999E-20</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -1047,9 +1095,9 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
-        <v>360.0</v>
+        <v>360</v>
       </c>
       <c r="B23" s="4">
         <v>1.93E-19</v>
@@ -1081,12 +1129,12 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
-        <v>365.0</v>
+        <v>365</v>
       </c>
       <c r="B24" s="4">
-        <v>2.13E-19</v>
+        <v>2.1299999999999999E-19</v>
       </c>
       <c r="C24" s="4">
         <v>1.17E-20</v>
@@ -1115,12 +1163,12 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
-        <v>370.0</v>
+        <v>370</v>
       </c>
       <c r="B25" s="4">
-        <v>2.15E-19</v>
+        <v>2.1500000000000001E-19</v>
       </c>
       <c r="C25" s="4">
         <v>1.17E-20</v>
@@ -1149,12 +1197,12 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
-        <v>375.0</v>
+        <v>375</v>
       </c>
       <c r="B26" s="4">
-        <v>2.53E-19</v>
+        <v>2.5300000000000002E-19</v>
       </c>
       <c r="C26" s="4">
         <v>1.17E-20</v>
@@ -1183,12 +1231,12 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
-        <v>380.0</v>
+        <v>380</v>
       </c>
       <c r="B27" s="4">
-        <v>2.56E-19</v>
+        <v>2.5599999999999998E-19</v>
       </c>
       <c r="C27" s="4">
         <v>1.15E-20</v>
@@ -1217,15 +1265,15 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
-        <v>385.0</v>
+        <v>385</v>
       </c>
       <c r="B28" s="4">
-        <v>2.7E-19</v>
+        <v>2.7000000000000001E-19</v>
       </c>
       <c r="C28" s="4">
-        <v>1.18E-20</v>
+        <v>1.1800000000000001E-20</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1251,15 +1299,15 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
-        <v>390.0</v>
+        <v>390</v>
       </c>
       <c r="B29" s="4">
-        <v>2.95E-19</v>
+        <v>2.9500000000000002E-19</v>
       </c>
       <c r="C29" s="4">
-        <v>1.19E-20</v>
+        <v>1.1899999999999999E-20</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -1285,12 +1333,12 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
-        <v>395.0</v>
+        <v>395</v>
       </c>
       <c r="B30" s="4">
-        <v>3.02E-19</v>
+        <v>3.0200000000000001E-19</v>
       </c>
       <c r="C30" s="4">
         <v>1.22E-20</v>
@@ -1319,12 +1367,12 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="B31" s="4">
-        <v>2.98E-19</v>
+        <v>2.9800000000000002E-19</v>
       </c>
       <c r="C31" s="4">
         <v>1.21E-20</v>
@@ -1353,12 +1401,12 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
-        <v>405.0</v>
+        <v>405</v>
       </c>
       <c r="B32" s="4">
-        <v>3.53E-19</v>
+        <v>3.5300000000000002E-19</v>
       </c>
       <c r="C32" s="4">
         <v>1.01E-20</v>
@@ -1387,15 +1435,15 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
-        <v>410.0</v>
+        <v>410</v>
       </c>
       <c r="B33" s="4">
-        <v>3.56E-19</v>
+        <v>3.5600000000000002E-19</v>
       </c>
       <c r="C33" s="4">
-        <v>9.82E-21</v>
+        <v>9.8200000000000001E-21</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -1421,12 +1469,12 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
-        <v>415.0</v>
+        <v>415</v>
       </c>
       <c r="B34" s="4">
-        <v>3.66E-19</v>
+        <v>3.6600000000000002E-19</v>
       </c>
       <c r="C34" s="4">
         <v>1.03E-20</v>
@@ -1455,12 +1503,12 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
-        <v>420.0</v>
+        <v>420</v>
       </c>
       <c r="B35" s="4">
-        <v>3.78E-19</v>
+        <v>3.7799999999999998E-19</v>
       </c>
       <c r="C35" s="4">
         <v>1.01E-20</v>
@@ -1489,15 +1537,15 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
-        <v>425.0</v>
+        <v>425</v>
       </c>
       <c r="B36" s="4">
         <v>3.8E-19</v>
       </c>
       <c r="C36" s="4">
-        <v>1.05E-20</v>
+        <v>1.0499999999999999E-20</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -1523,15 +1571,15 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
-        <v>430.0</v>
+        <v>430</v>
       </c>
       <c r="B37" s="4">
-        <v>3.87E-19</v>
+        <v>3.8699999999999999E-19</v>
       </c>
       <c r="C37" s="4">
-        <v>1.0E-20</v>
+        <v>9.9999999999999995E-21</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -1557,12 +1605,12 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
-        <v>435.0</v>
+        <v>435</v>
       </c>
       <c r="B38" s="4">
-        <v>3.99E-19</v>
+        <v>3.9900000000000001E-19</v>
       </c>
       <c r="C38" s="4">
         <v>1.06E-20</v>
@@ -1591,15 +1639,15 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
-        <v>440.0</v>
+        <v>440</v>
       </c>
       <c r="B39" s="4">
-        <v>4.11E-19</v>
+        <v>4.1100000000000002E-19</v>
       </c>
       <c r="C39" s="4">
-        <v>1.04E-20</v>
+        <v>1.0400000000000001E-20</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -1625,12 +1673,12 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
-        <v>445.0</v>
+        <v>445</v>
       </c>
       <c r="B40" s="4">
-        <v>4.2E-19</v>
+        <v>4.1999999999999998E-19</v>
       </c>
       <c r="C40" s="4">
         <v>1.06E-20</v>
@@ -1659,12 +1707,12 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
-        <v>450.0</v>
+        <v>450</v>
       </c>
       <c r="B41" s="4">
-        <v>4.1E-19</v>
+        <v>4.0999999999999999E-19</v>
       </c>
       <c r="C41" s="4">
         <v>1.03E-20</v>
@@ -1693,12 +1741,12 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
-        <v>455.0</v>
+        <v>455</v>
       </c>
       <c r="B42" s="4">
-        <v>4.2E-19</v>
+        <v>4.1999999999999998E-19</v>
       </c>
       <c r="C42" s="4">
         <v>1.13E-20</v>
@@ -1727,12 +1775,12 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3">
-        <v>460.0</v>
+        <v>460</v>
       </c>
       <c r="B43" s="4">
-        <v>4.31E-19</v>
+        <v>4.3100000000000001E-19</v>
       </c>
       <c r="C43" s="4">
         <v>1.1E-20</v>
@@ -1761,9 +1809,9 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
-        <v>465.0</v>
+        <v>465</v>
       </c>
       <c r="B44" s="4">
         <v>4.28E-19</v>
@@ -1795,15 +1843,15 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3">
-        <v>470.0</v>
+        <v>470</v>
       </c>
       <c r="B45" s="4">
-        <v>4.59E-19</v>
+        <v>4.5900000000000002E-19</v>
       </c>
       <c r="C45" s="4">
-        <v>1.19E-20</v>
+        <v>1.1899999999999999E-20</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -1829,15 +1877,15 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
-        <v>475.0</v>
+        <v>475</v>
       </c>
       <c r="B46" s="4">
-        <v>4.55E-19</v>
+        <v>4.5499999999999999E-19</v>
       </c>
       <c r="C46" s="4">
-        <v>1.14E-20</v>
+        <v>1.1399999999999999E-20</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -1863,12 +1911,12 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3">
-        <v>480.0</v>
+        <v>480</v>
       </c>
       <c r="B47" s="4">
-        <v>4.79E-19</v>
+        <v>4.7900000000000001E-19</v>
       </c>
       <c r="C47" s="4">
         <v>1.16E-20</v>
@@ -1897,12 +1945,12 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
-        <v>485.0</v>
+        <v>485</v>
       </c>
       <c r="B48" s="4">
-        <v>4.84E-19</v>
+        <v>4.8399999999999999E-19</v>
       </c>
       <c r="C48" s="4">
         <v>1.17E-20</v>
@@ -1931,12 +1979,12 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3">
-        <v>490.0</v>
+        <v>490</v>
       </c>
       <c r="B49" s="4">
-        <v>4.79E-19</v>
+        <v>4.7900000000000001E-19</v>
       </c>
       <c r="C49" s="4">
         <v>1.15E-20</v>
@@ -1965,9 +2013,9 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
-        <v>495.0</v>
+        <v>495</v>
       </c>
       <c r="B50" s="4">
         <v>4.96E-19</v>
@@ -1999,15 +2047,15 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" s="3">
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="B51" s="4">
-        <v>4.84E-19</v>
+        <v>4.8399999999999999E-19</v>
       </c>
       <c r="C51" s="4">
-        <v>1.18E-20</v>
+        <v>1.1800000000000001E-20</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -2033,15 +2081,15 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
-        <v>505.0</v>
+        <v>505</v>
       </c>
       <c r="B52" s="4">
-        <v>5.04E-19</v>
+        <v>5.0399999999999998E-19</v>
       </c>
       <c r="C52" s="4">
-        <v>1.18E-20</v>
+        <v>1.1800000000000001E-20</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -2067,12 +2115,12 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="3">
-        <v>510.0</v>
+        <v>510</v>
       </c>
       <c r="B53" s="4">
-        <v>5.15E-19</v>
+        <v>5.1499999999999996E-19</v>
       </c>
       <c r="C53" s="4">
         <v>1.22E-20</v>
@@ -2101,15 +2149,15 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
-        <v>515.0</v>
+        <v>515</v>
       </c>
       <c r="B54" s="4">
         <v>5.25E-19</v>
       </c>
       <c r="C54" s="4">
-        <v>1.79E-20</v>
+        <v>1.7900000000000001E-20</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -2135,9 +2183,9 @@
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
-        <v>520.0</v>
+        <v>520</v>
       </c>
       <c r="B55" s="4">
         <v>5.51E-19</v>
@@ -2169,12 +2217,12 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
-        <v>525.0</v>
+        <v>525</v>
       </c>
       <c r="B56" s="4">
-        <v>5.12E-19</v>
+        <v>5.1199999999999995E-19</v>
       </c>
       <c r="C56" s="4">
         <v>1.84E-20</v>
@@ -2203,15 +2251,15 @@
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="3">
-        <v>530.0</v>
+        <v>530</v>
       </c>
       <c r="B57" s="4">
-        <v>5.47E-19</v>
+        <v>5.4699999999999996E-19</v>
       </c>
       <c r="C57" s="4">
-        <v>1.63E-20</v>
+        <v>1.6299999999999999E-20</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -2237,12 +2285,12 @@
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
-        <v>535.0</v>
+        <v>535</v>
       </c>
       <c r="B58" s="4">
-        <v>4.87E-19</v>
+        <v>4.8699999999999999E-19</v>
       </c>
       <c r="C58" s="4">
         <v>1.76E-20</v>
@@ -2271,15 +2319,15 @@
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="3">
-        <v>540.0</v>
+        <v>540</v>
       </c>
       <c r="B59" s="4">
-        <v>5.55E-19</v>
+        <v>5.5500000000000003E-19</v>
       </c>
       <c r="C59" s="4">
-        <v>1.78E-20</v>
+        <v>1.7800000000000001E-20</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -2305,15 +2353,15 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="3">
-        <v>545.0</v>
+        <v>545</v>
       </c>
       <c r="B60" s="4">
-        <v>5.0E-19</v>
+        <v>5.0000000000000004E-19</v>
       </c>
       <c r="C60" s="4">
-        <v>1.71E-20</v>
+        <v>1.7099999999999999E-20</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -2339,15 +2387,15 @@
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="3">
-        <v>550.0</v>
+        <v>550</v>
       </c>
       <c r="B61" s="4">
-        <v>5.2E-19</v>
+        <v>5.2000000000000003E-19</v>
       </c>
       <c r="C61" s="4">
-        <v>1.67E-20</v>
+        <v>1.6700000000000001E-20</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -2373,15 +2421,15 @@
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="3">
-        <v>555.0</v>
+        <v>555</v>
       </c>
       <c r="B62" s="4">
-        <v>5.5E-19</v>
+        <v>5.4999999999999996E-19</v>
       </c>
       <c r="C62" s="4">
-        <v>1.77E-20</v>
+        <v>1.7700000000000001E-20</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -2407,15 +2455,15 @@
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="3">
-        <v>560.0</v>
+        <v>560</v>
       </c>
       <c r="B63" s="4">
-        <v>5.34E-19</v>
+        <v>5.3400000000000001E-19</v>
       </c>
       <c r="C63" s="4">
-        <v>1.68E-20</v>
+        <v>1.6800000000000001E-20</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -2441,15 +2489,15 @@
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="3">
-        <v>565.0</v>
+        <v>565</v>
       </c>
       <c r="B64" s="4">
-        <v>5.56E-19</v>
+        <v>5.5599999999999997E-19</v>
       </c>
       <c r="C64" s="4">
-        <v>9.18E-21</v>
+        <v>9.1800000000000002E-21</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -2475,15 +2523,15 @@
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="3">
-        <v>570.0</v>
+        <v>570</v>
       </c>
       <c r="B65" s="4">
-        <v>5.59E-19</v>
+        <v>5.5899999999999997E-19</v>
       </c>
       <c r="C65" s="4">
-        <v>8.6E-21</v>
+        <v>8.5999999999999996E-21</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -2509,15 +2557,15 @@
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="3">
-        <v>575.0</v>
+        <v>575</v>
       </c>
       <c r="B66" s="4">
-        <v>5.64E-19</v>
+        <v>5.6400000000000004E-19</v>
       </c>
       <c r="C66" s="4">
-        <v>8.37E-21</v>
+        <v>8.3700000000000001E-21</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -2543,12 +2591,12 @@
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="3">
-        <v>580.0</v>
+        <v>580</v>
       </c>
       <c r="B67" s="4">
-        <v>5.59E-19</v>
+        <v>5.5899999999999997E-19</v>
       </c>
       <c r="C67" s="4">
         <v>8.82E-21</v>
@@ -2577,12 +2625,12 @@
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="3">
-        <v>585.0</v>
+        <v>585</v>
       </c>
       <c r="B68" s="4">
-        <v>5.64E-19</v>
+        <v>5.6400000000000004E-19</v>
       </c>
       <c r="C68" s="4">
         <v>8.82E-21</v>
@@ -2611,15 +2659,15 @@
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="3">
-        <v>590.0</v>
+        <v>590</v>
       </c>
       <c r="B69" s="4">
-        <v>5.61E-19</v>
+        <v>5.6100000000000004E-19</v>
       </c>
       <c r="C69" s="4">
-        <v>8.41E-21</v>
+        <v>8.4099999999999996E-21</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -2645,15 +2693,15 @@
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="3">
-        <v>595.0</v>
+        <v>595</v>
       </c>
       <c r="B70" s="4">
-        <v>5.65E-19</v>
+        <v>5.6499999999999998E-19</v>
       </c>
       <c r="C70" s="4">
-        <v>8.75E-21</v>
+        <v>8.7500000000000001E-21</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -2679,15 +2727,15 @@
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="3">
-        <v>600.0</v>
+        <v>600</v>
       </c>
       <c r="B71" s="4">
-        <v>5.76E-19</v>
+        <v>5.7599999999999996E-19</v>
       </c>
       <c r="C71" s="4">
-        <v>8.84E-21</v>
+        <v>8.8399999999999998E-21</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -2713,15 +2761,15 @@
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="3">
-        <v>605.0</v>
+        <v>605</v>
       </c>
       <c r="B72" s="4">
-        <v>5.66E-19</v>
+        <v>5.6600000000000001E-19</v>
       </c>
       <c r="C72" s="4">
-        <v>7.43E-21</v>
+        <v>7.4299999999999993E-21</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -2747,15 +2795,15 @@
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="3">
-        <v>610.0</v>
+        <v>610</v>
       </c>
       <c r="B73" s="4">
-        <v>5.73E-19</v>
+        <v>5.7299999999999996E-19</v>
       </c>
       <c r="C73" s="4">
-        <v>8.97E-21</v>
+        <v>8.9700000000000005E-21</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -2781,15 +2829,15 @@
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="3">
-        <v>615.0</v>
+        <v>615</v>
       </c>
       <c r="B74" s="4">
-        <v>5.79E-19</v>
+        <v>5.7899999999999996E-19</v>
       </c>
       <c r="C74" s="4">
-        <v>8.94E-21</v>
+        <v>8.9400000000000001E-21</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -2815,15 +2863,15 @@
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="3">
-        <v>620.0</v>
+        <v>620</v>
       </c>
       <c r="B75" s="4">
-        <v>5.81E-19</v>
+        <v>5.8100000000000003E-19</v>
       </c>
       <c r="C75" s="4">
-        <v>9.03E-21</v>
+        <v>9.0299999999999997E-21</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -2849,15 +2897,15 @@
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="3">
-        <v>625.0</v>
+        <v>625</v>
       </c>
       <c r="B76" s="4">
-        <v>5.65E-19</v>
+        <v>5.6499999999999998E-19</v>
       </c>
       <c r="C76" s="4">
-        <v>6.21E-21</v>
+        <v>6.2100000000000003E-21</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -2883,15 +2931,15 @@
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="3">
-        <v>630.0</v>
+        <v>630</v>
       </c>
       <c r="B77" s="4">
-        <v>5.69E-19</v>
+        <v>5.6900000000000002E-19</v>
       </c>
       <c r="C77" s="4">
-        <v>5.63E-21</v>
+        <v>5.6299999999999997E-21</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -2917,12 +2965,12 @@
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="3">
-        <v>635.0</v>
+        <v>635</v>
       </c>
       <c r="B78" s="4">
-        <v>5.87E-19</v>
+        <v>5.8700000000000004E-19</v>
       </c>
       <c r="C78" s="4">
         <v>6.11E-21</v>
@@ -2951,15 +2999,15 @@
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="3">
-        <v>640.0</v>
+        <v>640</v>
       </c>
       <c r="B79" s="4">
-        <v>5.89E-19</v>
+        <v>5.8900000000000001E-19</v>
       </c>
       <c r="C79" s="4">
-        <v>5.72E-21</v>
+        <v>5.7200000000000002E-21</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -2985,15 +3033,15 @@
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="3">
-        <v>645.0</v>
+        <v>645</v>
       </c>
       <c r="B80" s="4">
-        <v>5.99E-19</v>
+        <v>5.9899999999999995E-19</v>
       </c>
       <c r="C80" s="4">
-        <v>5.91E-21</v>
+        <v>5.9100000000000001E-21</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -3019,15 +3067,15 @@
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="3">
-        <v>650.0</v>
+        <v>650</v>
       </c>
       <c r="B81" s="4">
-        <v>5.95E-19</v>
+        <v>5.9500000000000001E-19</v>
       </c>
       <c r="C81" s="4">
-        <v>5.96E-21</v>
+        <v>5.9600000000000003E-21</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -3053,12 +3101,12 @@
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="3">
-        <v>655.0</v>
+        <v>655</v>
       </c>
       <c r="B82" s="4">
-        <v>5.87E-19</v>
+        <v>5.8700000000000004E-19</v>
       </c>
       <c r="C82" s="4">
         <v>3.65E-21</v>
@@ -3087,15 +3135,15 @@
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="3">
-        <v>660.0</v>
+        <v>660</v>
       </c>
       <c r="B83" s="4">
         <v>5.8E-19</v>
       </c>
       <c r="C83" s="4">
-        <v>3.06E-21</v>
+        <v>3.0599999999999999E-21</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -3121,15 +3169,15 @@
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="3">
-        <v>665.0</v>
+        <v>665</v>
       </c>
       <c r="B84" s="4">
         <v>5.86E-19</v>
       </c>
       <c r="C84" s="4">
-        <v>3.2E-21</v>
+        <v>3.2000000000000002E-21</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -3155,15 +3203,15 @@
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="3">
-        <v>670.0</v>
+        <v>670</v>
       </c>
       <c r="B85" s="4">
         <v>5.83E-19</v>
       </c>
       <c r="C85" s="4">
-        <v>2.7E-21</v>
+        <v>2.7000000000000001E-21</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -3189,15 +3237,15 @@
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="3">
-        <v>675.0</v>
+        <v>675</v>
       </c>
       <c r="B86" s="4">
-        <v>5.88E-19</v>
+        <v>5.8799999999999997E-19</v>
       </c>
       <c r="C86" s="4">
-        <v>2.42E-21</v>
+        <v>2.4200000000000001E-21</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -3223,15 +3271,15 @@
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="3">
-        <v>680.0</v>
+        <v>680</v>
       </c>
       <c r="B87" s="4">
-        <v>5.88E-19</v>
+        <v>5.8799999999999997E-19</v>
       </c>
       <c r="C87" s="4">
-        <v>2.59E-21</v>
+        <v>2.5899999999999999E-21</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -3257,15 +3305,15 @@
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="3">
-        <v>685.0</v>
+        <v>685</v>
       </c>
       <c r="B88" s="4">
-        <v>5.89E-19</v>
+        <v>5.8900000000000001E-19</v>
       </c>
       <c r="C88" s="4">
-        <v>2.53E-21</v>
+        <v>2.5299999999999999E-21</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -3291,15 +3339,15 @@
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="3">
-        <v>690.0</v>
+        <v>690</v>
       </c>
       <c r="B89" s="4">
-        <v>6.11E-19</v>
+        <v>6.1099999999999997E-19</v>
       </c>
       <c r="C89" s="4">
-        <v>2.21E-21</v>
+        <v>2.2099999999999999E-21</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -3325,15 +3373,15 @@
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="3">
-        <v>695.0</v>
+        <v>695</v>
       </c>
       <c r="B90" s="4">
-        <v>6.3E-19</v>
+        <v>6.3000000000000002E-19</v>
       </c>
       <c r="C90" s="4">
-        <v>2.35E-21</v>
+        <v>2.3500000000000001E-21</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -3359,15 +3407,15 @@
       <c r="Y90" s="2"/>
       <c r="Z90" s="2"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="3">
-        <v>700.0</v>
+        <v>700</v>
       </c>
       <c r="B91" s="4">
-        <v>6.35E-19</v>
+        <v>6.3499999999999999E-19</v>
       </c>
       <c r="C91" s="4">
-        <v>2.43E-21</v>
+        <v>2.4299999999999999E-21</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -3393,15 +3441,15 @@
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="3">
-        <v>705.0</v>
+        <v>705</v>
       </c>
       <c r="B92" s="4">
-        <v>6.4E-19</v>
+        <v>6.3999999999999996E-19</v>
       </c>
       <c r="C92" s="4">
-        <v>2.44E-21</v>
+        <v>2.4399999999999998E-21</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -3427,15 +3475,15 @@
       <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="3">
-        <v>710.0</v>
+        <v>710</v>
       </c>
       <c r="B93" s="4">
-        <v>6.5E-19</v>
+        <v>6.5000000000000001E-19</v>
       </c>
       <c r="C93" s="4">
-        <v>2.51E-21</v>
+        <v>2.5100000000000001E-21</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -3461,15 +3509,15 @@
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="3">
-        <v>715.0</v>
+        <v>715</v>
       </c>
       <c r="B94" s="4">
-        <v>6.74E-19</v>
+        <v>6.7400000000000003E-19</v>
       </c>
       <c r="C94" s="4">
-        <v>2.56E-21</v>
+        <v>2.5599999999999999E-21</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -3495,15 +3543,15 @@
       <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="3">
-        <v>720.0</v>
+        <v>720</v>
       </c>
       <c r="B95" s="4">
         <v>6.99E-19</v>
       </c>
       <c r="C95" s="4">
-        <v>2.31E-21</v>
+        <v>2.3099999999999999E-21</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -3529,15 +3577,15 @@
       <c r="Y95" s="2"/>
       <c r="Z95" s="2"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="3">
-        <v>725.0</v>
+        <v>725</v>
       </c>
       <c r="B96" s="4">
-        <v>7.06E-19</v>
+        <v>7.0600000000000004E-19</v>
       </c>
       <c r="C96" s="4">
-        <v>2.44E-21</v>
+        <v>2.4399999999999998E-21</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -3563,12 +3611,12 @@
       <c r="Y96" s="2"/>
       <c r="Z96" s="2"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="3">
-        <v>730.0</v>
+        <v>730</v>
       </c>
       <c r="B97" s="4">
-        <v>7.25E-19</v>
+        <v>7.2499999999999999E-19</v>
       </c>
       <c r="C97" s="4">
         <v>2.49E-21</v>
@@ -3597,12 +3645,12 @@
       <c r="Y97" s="2"/>
       <c r="Z97" s="2"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="3">
-        <v>735.0</v>
+        <v>735</v>
       </c>
       <c r="B98" s="4">
-        <v>7.39E-19</v>
+        <v>7.3899999999999998E-19</v>
       </c>
       <c r="C98" s="4">
         <v>2.24E-21</v>
@@ -3631,15 +3679,15 @@
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="3">
-        <v>740.0</v>
+        <v>740</v>
       </c>
       <c r="B99" s="4">
-        <v>7.36E-19</v>
+        <v>7.3599999999999997E-19</v>
       </c>
       <c r="C99" s="4">
-        <v>2.31E-21</v>
+        <v>2.3099999999999999E-21</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -3665,15 +3713,15 @@
       <c r="Y99" s="2"/>
       <c r="Z99" s="2"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="3">
-        <v>745.0</v>
+        <v>745</v>
       </c>
       <c r="B100" s="4">
-        <v>7.54E-19</v>
+        <v>7.5399999999999999E-19</v>
       </c>
       <c r="C100" s="4">
-        <v>2.43E-21</v>
+        <v>2.4299999999999999E-21</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -3699,15 +3747,15 @@
       <c r="Y100" s="2"/>
       <c r="Z100" s="2"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="3">
-        <v>750.0</v>
+        <v>750</v>
       </c>
       <c r="B101" s="4">
-        <v>7.56E-19</v>
+        <v>7.5599999999999996E-19</v>
       </c>
       <c r="C101" s="4">
-        <v>2.34E-21</v>
+        <v>2.3399999999999999E-21</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -3733,12 +3781,12 @@
       <c r="Y101" s="2"/>
       <c r="Z101" s="2"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="3">
-        <v>755.0</v>
+        <v>755</v>
       </c>
       <c r="B102" s="4">
-        <v>7.71E-19</v>
+        <v>7.7099999999999998E-19</v>
       </c>
       <c r="C102" s="4">
         <v>2.33E-21</v>
@@ -3767,15 +3815,15 @@
       <c r="Y102" s="2"/>
       <c r="Z102" s="2"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="3">
-        <v>760.0</v>
+        <v>760</v>
       </c>
       <c r="B103" s="4">
         <v>7.89E-19</v>
       </c>
       <c r="C103" s="4">
-        <v>2.31E-21</v>
+        <v>2.3099999999999999E-21</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -3801,12 +3849,12 @@
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" s="3">
-        <v>765.0</v>
+        <v>765</v>
       </c>
       <c r="B104" s="4">
-        <v>8.24E-19</v>
+        <v>8.2400000000000001E-19</v>
       </c>
       <c r="C104" s="4">
         <v>2.17E-21</v>
@@ -3835,15 +3883,15 @@
       <c r="Y104" s="2"/>
       <c r="Z104" s="2"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="3">
-        <v>770.0</v>
+        <v>770</v>
       </c>
       <c r="B105" s="4">
-        <v>8.17E-19</v>
+        <v>8.1699999999999997E-19</v>
       </c>
       <c r="C105" s="4">
-        <v>2.2E-21</v>
+        <v>2.2000000000000001E-21</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -3869,12 +3917,12 @@
       <c r="Y105" s="2"/>
       <c r="Z105" s="2"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" s="3">
-        <v>775.0</v>
+        <v>775</v>
       </c>
       <c r="B106" s="4">
-        <v>7.96E-19</v>
+        <v>7.9600000000000004E-19</v>
       </c>
       <c r="C106" s="4">
         <v>2.24E-21</v>
@@ -3903,15 +3951,15 @@
       <c r="Y106" s="2"/>
       <c r="Z106" s="2"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="3">
-        <v>780.0</v>
+        <v>780</v>
       </c>
       <c r="B107" s="4">
-        <v>8.01E-19</v>
+        <v>8.0100000000000001E-19</v>
       </c>
       <c r="C107" s="4">
-        <v>2.22E-21</v>
+        <v>2.2199999999999998E-21</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -3937,15 +3985,15 @@
       <c r="Y107" s="2"/>
       <c r="Z107" s="2"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="3">
-        <v>785.0</v>
+        <v>785</v>
       </c>
       <c r="B108" s="4">
-        <v>8.1E-19</v>
+        <v>8.1000000000000002E-19</v>
       </c>
       <c r="C108" s="4">
-        <v>2.22E-21</v>
+        <v>2.2199999999999998E-21</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -3971,15 +4019,15 @@
       <c r="Y108" s="2"/>
       <c r="Z108" s="2"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" s="3">
-        <v>790.0</v>
+        <v>790</v>
       </c>
       <c r="B109" s="4">
-        <v>7.99E-19</v>
+        <v>7.9900000000000004E-19</v>
       </c>
       <c r="C109" s="4">
-        <v>2.28E-21</v>
+        <v>2.2799999999999999E-21</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -4005,15 +4053,15 @@
       <c r="Y109" s="2"/>
       <c r="Z109" s="2"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" s="3">
-        <v>795.0</v>
+        <v>795</v>
       </c>
       <c r="B110" s="4">
         <v>7.89E-19</v>
       </c>
       <c r="C110" s="4">
-        <v>2.42E-21</v>
+        <v>2.4200000000000001E-21</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -4039,9 +4087,9 @@
       <c r="Y110" s="2"/>
       <c r="Z110" s="2"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" s="3">
-        <v>800.0</v>
+        <v>800</v>
       </c>
       <c r="B111" s="4">
         <v>7.92E-19</v>
@@ -4073,15 +4121,15 @@
       <c r="Y111" s="2"/>
       <c r="Z111" s="2"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="3">
-        <v>805.0</v>
+        <v>805</v>
       </c>
       <c r="B112" s="4">
-        <v>7.94E-19</v>
+        <v>7.9399999999999997E-19</v>
       </c>
       <c r="C112" s="4">
-        <v>2.26E-21</v>
+        <v>2.2600000000000001E-21</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -4107,15 +4155,15 @@
       <c r="Y112" s="2"/>
       <c r="Z112" s="2"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" s="3">
-        <v>810.0</v>
+        <v>810</v>
       </c>
       <c r="B113" s="4">
-        <v>8.01E-19</v>
+        <v>8.0100000000000001E-19</v>
       </c>
       <c r="C113" s="4">
-        <v>2.38E-21</v>
+        <v>2.3800000000000002E-21</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -4141,15 +4189,15 @@
       <c r="Y113" s="2"/>
       <c r="Z113" s="2"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="3">
-        <v>815.0</v>
+        <v>815</v>
       </c>
       <c r="B114" s="4">
         <v>8.47E-19</v>
       </c>
       <c r="C114" s="4">
-        <v>2.42E-21</v>
+        <v>2.4200000000000001E-21</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -4175,15 +4223,15 @@
       <c r="Y114" s="2"/>
       <c r="Z114" s="2"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="3">
-        <v>820.0</v>
+        <v>820</v>
       </c>
       <c r="B115" s="4">
         <v>8.18E-19</v>
       </c>
       <c r="C115" s="4">
-        <v>2.38E-21</v>
+        <v>2.3800000000000002E-21</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -4209,15 +4257,15 @@
       <c r="Y115" s="2"/>
       <c r="Z115" s="2"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="3">
-        <v>825.0</v>
+        <v>825</v>
       </c>
       <c r="B116" s="4">
-        <v>8.11E-19</v>
+        <v>8.1099999999999996E-19</v>
       </c>
       <c r="C116" s="4">
-        <v>2.19E-21</v>
+        <v>2.1900000000000002E-21</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -4243,15 +4291,15 @@
       <c r="Y116" s="2"/>
       <c r="Z116" s="2"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="3">
-        <v>830.0</v>
+        <v>830</v>
       </c>
       <c r="B117" s="4">
-        <v>8.0E-19</v>
+        <v>7.9999999999999998E-19</v>
       </c>
       <c r="C117" s="4">
-        <v>2.07E-21</v>
+        <v>2.0700000000000001E-21</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -4277,15 +4325,15 @@
       <c r="Y117" s="2"/>
       <c r="Z117" s="2"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="3">
-        <v>835.0</v>
+        <v>835</v>
       </c>
       <c r="B118" s="4">
-        <v>8.17E-19</v>
+        <v>8.1699999999999997E-19</v>
       </c>
       <c r="C118" s="4">
-        <v>2.03E-21</v>
+        <v>2.0299999999999998E-21</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -4311,15 +4359,15 @@
       <c r="Y118" s="2"/>
       <c r="Z118" s="2"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" s="3">
-        <v>840.0</v>
+        <v>840</v>
       </c>
       <c r="B119" s="4">
-        <v>8.33E-19</v>
+        <v>8.3300000000000002E-19</v>
       </c>
       <c r="C119" s="4">
-        <v>2.18E-21</v>
+        <v>2.1799999999999999E-21</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -4345,15 +4393,15 @@
       <c r="Y119" s="2"/>
       <c r="Z119" s="2"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" s="3">
-        <v>845.0</v>
+        <v>845</v>
       </c>
       <c r="B120" s="4">
-        <v>8.14E-19</v>
+        <v>8.1399999999999996E-19</v>
       </c>
       <c r="C120" s="4">
-        <v>2.13E-21</v>
+        <v>2.1300000000000001E-21</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -4379,15 +4427,15 @@
       <c r="Y120" s="2"/>
       <c r="Z120" s="2"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" s="3">
-        <v>850.0</v>
+        <v>850</v>
       </c>
       <c r="B121" s="4">
-        <v>8.11E-19</v>
+        <v>8.1099999999999996E-19</v>
       </c>
       <c r="C121" s="4">
-        <v>2.04E-21</v>
+        <v>2.0400000000000001E-21</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -4413,15 +4461,15 @@
       <c r="Y121" s="2"/>
       <c r="Z121" s="2"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="3">
-        <v>855.0</v>
+        <v>855</v>
       </c>
       <c r="B122" s="4">
-        <v>8.29E-19</v>
+        <v>8.2899999999999998E-19</v>
       </c>
       <c r="C122" s="4">
-        <v>2.1E-21</v>
+        <v>2.1000000000000001E-21</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -4447,15 +4495,15 @@
       <c r="Y122" s="2"/>
       <c r="Z122" s="2"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" s="3">
-        <v>860.0</v>
+        <v>860</v>
       </c>
       <c r="B123" s="4">
-        <v>8.09E-19</v>
+        <v>8.0899999999999999E-19</v>
       </c>
       <c r="C123" s="4">
-        <v>2.19E-21</v>
+        <v>2.1900000000000002E-21</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -4481,15 +4529,15 @@
       <c r="Y123" s="2"/>
       <c r="Z123" s="2"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" s="3">
-        <v>865.0</v>
+        <v>865</v>
       </c>
       <c r="B124" s="4">
-        <v>8.23E-19</v>
+        <v>8.2299999999999997E-19</v>
       </c>
       <c r="C124" s="4">
-        <v>1.91E-21</v>
+        <v>1.9100000000000001E-21</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -4515,15 +4563,15 @@
       <c r="Y124" s="2"/>
       <c r="Z124" s="2"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A125" s="3">
-        <v>870.0</v>
+        <v>870</v>
       </c>
       <c r="B125" s="4">
-        <v>8.22E-19</v>
+        <v>8.2200000000000004E-19</v>
       </c>
       <c r="C125" s="4">
-        <v>1.98E-21</v>
+        <v>1.9800000000000001E-21</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -4549,15 +4597,15 @@
       <c r="Y125" s="2"/>
       <c r="Z125" s="2"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" s="3">
-        <v>875.0</v>
+        <v>875</v>
       </c>
       <c r="B126" s="4">
         <v>8.18E-19</v>
       </c>
       <c r="C126" s="4">
-        <v>2.09E-21</v>
+        <v>2.0899999999999999E-21</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -4583,15 +4631,15 @@
       <c r="Y126" s="2"/>
       <c r="Z126" s="2"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" s="3">
-        <v>880.0</v>
+        <v>880</v>
       </c>
       <c r="B127" s="4">
-        <v>8.19E-19</v>
+        <v>8.1900000000000003E-19</v>
       </c>
       <c r="C127" s="4">
-        <v>1.72E-21</v>
+        <v>1.7200000000000001E-21</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -4617,12 +4665,12 @@
       <c r="Y127" s="2"/>
       <c r="Z127" s="2"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" s="3">
-        <v>885.0</v>
+        <v>885</v>
       </c>
       <c r="B128" s="4">
-        <v>8.14E-19</v>
+        <v>8.1399999999999996E-19</v>
       </c>
       <c r="C128" s="4">
         <v>1.67E-21</v>
@@ -4651,15 +4699,15 @@
       <c r="Y128" s="2"/>
       <c r="Z128" s="2"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" s="3">
-        <v>890.0</v>
+        <v>890</v>
       </c>
       <c r="B129" s="4">
-        <v>8.2E-19</v>
+        <v>8.1999999999999997E-19</v>
       </c>
       <c r="C129" s="4">
-        <v>1.84E-21</v>
+        <v>1.8399999999999998E-21</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -4685,15 +4733,15 @@
       <c r="Y129" s="2"/>
       <c r="Z129" s="2"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A130" s="3">
-        <v>895.0</v>
+        <v>895</v>
       </c>
       <c r="B130" s="4">
-        <v>8.29E-19</v>
+        <v>8.2899999999999998E-19</v>
       </c>
       <c r="C130" s="4">
-        <v>1.87E-21</v>
+        <v>1.8699999999999999E-21</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -4719,15 +4767,15 @@
       <c r="Y130" s="2"/>
       <c r="Z130" s="2"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" s="3">
-        <v>900.0</v>
+        <v>900</v>
       </c>
       <c r="B131" s="4">
-        <v>8.26E-19</v>
+        <v>8.2599999999999998E-19</v>
       </c>
       <c r="C131" s="4">
-        <v>1.74E-21</v>
+        <v>1.7399999999999999E-21</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -4753,15 +4801,15 @@
       <c r="Y131" s="2"/>
       <c r="Z131" s="2"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A132" s="3">
-        <v>905.0</v>
+        <v>905</v>
       </c>
       <c r="B132" s="4">
-        <v>8.22E-19</v>
+        <v>8.2200000000000004E-19</v>
       </c>
       <c r="C132" s="4">
-        <v>1.82E-21</v>
+        <v>1.8200000000000001E-21</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -4787,12 +4835,12 @@
       <c r="Y132" s="2"/>
       <c r="Z132" s="2"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A133" s="3">
-        <v>910.0</v>
+        <v>910</v>
       </c>
       <c r="B133" s="4">
-        <v>8.22E-19</v>
+        <v>8.2200000000000004E-19</v>
       </c>
       <c r="C133" s="4">
         <v>1.89E-21</v>
@@ -4821,15 +4869,15 @@
       <c r="Y133" s="2"/>
       <c r="Z133" s="2"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A134" s="3">
-        <v>915.0</v>
+        <v>915</v>
       </c>
       <c r="B134" s="4">
-        <v>8.27E-19</v>
+        <v>8.2700000000000001E-19</v>
       </c>
       <c r="C134" s="4">
-        <v>1.47E-21</v>
+        <v>1.4699999999999999E-21</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -4855,15 +4903,15 @@
       <c r="Y134" s="2"/>
       <c r="Z134" s="2"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A135" s="3">
-        <v>920.0</v>
+        <v>920</v>
       </c>
       <c r="B135" s="4">
-        <v>8.35E-19</v>
+        <v>8.3499999999999999E-19</v>
       </c>
       <c r="C135" s="4">
-        <v>1.49E-21</v>
+        <v>1.4900000000000001E-21</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -4889,12 +4937,12 @@
       <c r="Y135" s="2"/>
       <c r="Z135" s="2"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A136" s="3">
-        <v>925.0</v>
+        <v>925</v>
       </c>
       <c r="B136" s="4">
-        <v>8.25E-19</v>
+        <v>8.2500000000000004E-19</v>
       </c>
       <c r="C136" s="4">
         <v>1.56E-21</v>
@@ -4923,15 +4971,15 @@
       <c r="Y136" s="2"/>
       <c r="Z136" s="2"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A137" s="3">
-        <v>930.0</v>
+        <v>930</v>
       </c>
       <c r="B137" s="4">
-        <v>8.14E-19</v>
+        <v>8.1399999999999996E-19</v>
       </c>
       <c r="C137" s="4">
-        <v>1.75E-21</v>
+        <v>1.7500000000000002E-21</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -4957,12 +5005,12 @@
       <c r="Y137" s="2"/>
       <c r="Z137" s="2"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A138" s="3">
-        <v>935.0</v>
+        <v>935</v>
       </c>
       <c r="B138" s="4">
-        <v>8.17E-19</v>
+        <v>8.1699999999999997E-19</v>
       </c>
       <c r="C138" s="4">
         <v>1.95E-21</v>
@@ -4991,15 +5039,15 @@
       <c r="Y138" s="2"/>
       <c r="Z138" s="2"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A139" s="3">
-        <v>940.0</v>
+        <v>940</v>
       </c>
       <c r="B139" s="4">
-        <v>8.2E-19</v>
+        <v>8.1999999999999997E-19</v>
       </c>
       <c r="C139" s="4">
-        <v>2.03E-21</v>
+        <v>2.0299999999999998E-21</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -5025,12 +5073,12 @@
       <c r="Y139" s="2"/>
       <c r="Z139" s="2"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A140" s="3">
-        <v>945.0</v>
+        <v>945</v>
       </c>
       <c r="B140" s="4">
-        <v>8.13E-19</v>
+        <v>8.1300000000000003E-19</v>
       </c>
       <c r="C140" s="4">
         <v>2.27E-21</v>
@@ -5059,15 +5107,15 @@
       <c r="Y140" s="2"/>
       <c r="Z140" s="2"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A141" s="3">
-        <v>950.0</v>
+        <v>950</v>
       </c>
       <c r="B141" s="4">
-        <v>8.29E-19</v>
+        <v>8.2899999999999998E-19</v>
       </c>
       <c r="C141" s="4">
-        <v>4.68E-21</v>
+        <v>4.6799999999999998E-21</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -5093,15 +5141,15 @@
       <c r="Y141" s="2"/>
       <c r="Z141" s="2"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A142" s="3">
-        <v>955.0</v>
+        <v>955</v>
       </c>
       <c r="B142" s="4">
-        <v>8.36E-19</v>
+        <v>8.3600000000000002E-19</v>
       </c>
       <c r="C142" s="4">
-        <v>6.54E-21</v>
+        <v>6.5400000000000001E-21</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -5127,15 +5175,15 @@
       <c r="Y142" s="2"/>
       <c r="Z142" s="2"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A143" s="3">
-        <v>965.0</v>
+        <v>965</v>
       </c>
       <c r="B143" s="4">
-        <v>8.11E-19</v>
+        <v>8.1099999999999996E-19</v>
       </c>
       <c r="C143" s="4">
-        <v>4.65E-21</v>
+        <v>4.6500000000000001E-21</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -5161,15 +5209,15 @@
       <c r="Y143" s="2"/>
       <c r="Z143" s="2"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A144" s="3">
-        <v>980.0</v>
+        <v>980</v>
       </c>
       <c r="B144" s="4">
         <v>8.15E-19</v>
       </c>
       <c r="C144" s="4">
-        <v>4.5E-21</v>
+        <v>4.4999999999999997E-21</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -5195,15 +5243,15 @@
       <c r="Y144" s="2"/>
       <c r="Z144" s="2"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" s="3">
-        <v>995.0</v>
+        <v>995</v>
       </c>
       <c r="B145" s="4">
-        <v>8.13E-19</v>
+        <v>8.1300000000000003E-19</v>
       </c>
       <c r="C145" s="4">
-        <v>4.58E-21</v>
+        <v>4.5800000000000002E-21</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -5229,15 +5277,15 @@
       <c r="Y145" s="2"/>
       <c r="Z145" s="2"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A146" s="3">
-        <v>1010.0</v>
+        <v>1010</v>
       </c>
       <c r="B146" s="4">
-        <v>8.1E-19</v>
+        <v>8.1000000000000002E-19</v>
       </c>
       <c r="C146" s="4">
-        <v>4.52E-21</v>
+        <v>4.5200000000000002E-21</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -5263,15 +5311,15 @@
       <c r="Y146" s="2"/>
       <c r="Z146" s="2"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" s="3">
-        <v>1025.0</v>
+        <v>1025</v>
       </c>
       <c r="B147" s="4">
-        <v>7.96E-19</v>
+        <v>7.9600000000000004E-19</v>
       </c>
       <c r="C147" s="4">
-        <v>4.53E-21</v>
+        <v>4.5300000000000001E-21</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -5297,15 +5345,15 @@
       <c r="Y147" s="2"/>
       <c r="Z147" s="2"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" s="3">
-        <v>1040.0</v>
+        <v>1040</v>
       </c>
       <c r="B148" s="4">
         <v>7.92E-19</v>
       </c>
       <c r="C148" s="4">
-        <v>5.76E-21</v>
+        <v>5.7599999999999997E-21</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -5331,15 +5379,15 @@
       <c r="Y148" s="2"/>
       <c r="Z148" s="2"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A149" s="3">
-        <v>1055.0</v>
+        <v>1055</v>
       </c>
       <c r="B149" s="4">
-        <v>7.9E-19</v>
+        <v>7.9000000000000003E-19</v>
       </c>
       <c r="C149" s="4">
-        <v>6.81E-21</v>
+        <v>6.8100000000000007E-21</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -5365,12 +5413,12 @@
       <c r="Y149" s="2"/>
       <c r="Z149" s="2"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A150" s="3">
-        <v>1070.0</v>
+        <v>1070</v>
       </c>
       <c r="B150" s="4">
-        <v>7.8E-19</v>
+        <v>7.7999999999999999E-19</v>
       </c>
       <c r="C150" s="4">
         <v>6.11E-21</v>
@@ -5399,15 +5447,15 @@
       <c r="Y150" s="2"/>
       <c r="Z150" s="2"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A151" s="3">
-        <v>1085.0</v>
+        <v>1085</v>
       </c>
       <c r="B151" s="4">
-        <v>7.76E-19</v>
+        <v>7.7599999999999995E-19</v>
       </c>
       <c r="C151" s="4">
-        <v>7.07E-21</v>
+        <v>7.0700000000000006E-21</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -5433,15 +5481,15 @@
       <c r="Y151" s="2"/>
       <c r="Z151" s="2"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A152" s="3">
-        <v>1100.0</v>
+        <v>1100</v>
       </c>
       <c r="B152" s="4">
-        <v>7.7E-19</v>
+        <v>7.7000000000000004E-19</v>
       </c>
       <c r="C152" s="4">
-        <v>6.26E-21</v>
+        <v>6.2599999999999997E-21</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -5467,15 +5515,15 @@
       <c r="Y152" s="2"/>
       <c r="Z152" s="2"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" s="3">
-        <v>1115.0</v>
+        <v>1115</v>
       </c>
       <c r="B153" s="4">
-        <v>7.76E-19</v>
+        <v>7.7599999999999995E-19</v>
       </c>
       <c r="C153" s="4">
-        <v>6.18E-21</v>
+        <v>6.1799999999999999E-21</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -5501,15 +5549,15 @@
       <c r="Y153" s="2"/>
       <c r="Z153" s="2"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A154" s="3">
-        <v>1130.0</v>
+        <v>1130</v>
       </c>
       <c r="B154" s="4">
-        <v>7.58E-19</v>
+        <v>7.5800000000000003E-19</v>
       </c>
       <c r="C154" s="4">
-        <v>6.12E-21</v>
+        <v>6.1199999999999999E-21</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -5535,15 +5583,15 @@
       <c r="Y154" s="2"/>
       <c r="Z154" s="2"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A155" s="3">
-        <v>1145.0</v>
+        <v>1145</v>
       </c>
       <c r="B155" s="4">
-        <v>7.56E-19</v>
+        <v>7.5599999999999996E-19</v>
       </c>
       <c r="C155" s="4">
-        <v>6.42E-21</v>
+        <v>6.4200000000000001E-21</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -5569,15 +5617,15 @@
       <c r="Y155" s="2"/>
       <c r="Z155" s="2"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" s="3">
-        <v>1160.0</v>
+        <v>1160</v>
       </c>
       <c r="B156" s="4">
-        <v>7.52E-19</v>
+        <v>7.5200000000000002E-19</v>
       </c>
       <c r="C156" s="4">
-        <v>5.99E-21</v>
+        <v>5.9899999999999999E-21</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -5603,15 +5651,15 @@
       <c r="Y156" s="2"/>
       <c r="Z156" s="2"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A157" s="3">
-        <v>1175.0</v>
+        <v>1175</v>
       </c>
       <c r="B157" s="4">
-        <v>7.52E-19</v>
+        <v>7.5200000000000002E-19</v>
       </c>
       <c r="C157" s="4">
-        <v>6.6E-21</v>
+        <v>6.6000000000000002E-21</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -5637,15 +5685,15 @@
       <c r="Y157" s="2"/>
       <c r="Z157" s="2"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A158" s="3">
-        <v>1190.0</v>
+        <v>1190</v>
       </c>
       <c r="B158" s="4">
-        <v>7.38E-19</v>
+        <v>7.3800000000000004E-19</v>
       </c>
       <c r="C158" s="4">
-        <v>5.65E-21</v>
+        <v>5.6500000000000002E-21</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -5671,15 +5719,15 @@
       <c r="Y158" s="2"/>
       <c r="Z158" s="2"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="3">
-        <v>1205.0</v>
+        <v>1205</v>
       </c>
       <c r="B159" s="4">
-        <v>7.42E-19</v>
+        <v>7.4199999999999998E-19</v>
       </c>
       <c r="C159" s="4">
-        <v>6.14E-21</v>
+        <v>6.1399999999999997E-21</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -5705,15 +5753,15 @@
       <c r="Y159" s="2"/>
       <c r="Z159" s="2"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" s="3">
-        <v>1220.0</v>
+        <v>1220</v>
       </c>
       <c r="B160" s="4">
-        <v>7.36E-19</v>
+        <v>7.3599999999999997E-19</v>
       </c>
       <c r="C160" s="4">
-        <v>6.12E-21</v>
+        <v>6.1199999999999999E-21</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -5739,15 +5787,15 @@
       <c r="Y160" s="2"/>
       <c r="Z160" s="2"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" s="3">
-        <v>1235.0</v>
+        <v>1235</v>
       </c>
       <c r="B161" s="4">
         <v>7.28E-19</v>
       </c>
       <c r="C161" s="4">
-        <v>6.02E-21</v>
+        <v>6.0200000000000003E-21</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -5773,15 +5821,15 @@
       <c r="Y161" s="2"/>
       <c r="Z161" s="2"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" s="3">
-        <v>1250.0</v>
+        <v>1250</v>
       </c>
       <c r="B162" s="4">
         <v>7.28E-19</v>
       </c>
       <c r="C162" s="4">
-        <v>5.98E-21</v>
+        <v>5.9800000000000001E-21</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -5807,15 +5855,15 @@
       <c r="Y162" s="2"/>
       <c r="Z162" s="2"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" s="3">
-        <v>1265.0</v>
+        <v>1265</v>
       </c>
       <c r="B163" s="4">
-        <v>7.17E-19</v>
+        <v>7.1700000000000002E-19</v>
       </c>
       <c r="C163" s="4">
-        <v>5.98E-21</v>
+        <v>5.9800000000000001E-21</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -5841,12 +5889,12 @@
       <c r="Y163" s="2"/>
       <c r="Z163" s="2"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" s="3">
-        <v>1280.0</v>
+        <v>1280</v>
       </c>
       <c r="B164" s="4">
-        <v>7.24E-19</v>
+        <v>7.2399999999999996E-19</v>
       </c>
       <c r="C164" s="4">
         <v>5.92E-21</v>
@@ -5875,15 +5923,15 @@
       <c r="Y164" s="2"/>
       <c r="Z164" s="2"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" s="3">
-        <v>1295.0</v>
+        <v>1295</v>
       </c>
       <c r="B165" s="4">
-        <v>7.22E-19</v>
+        <v>7.2199999999999999E-19</v>
       </c>
       <c r="C165" s="4">
-        <v>5.83E-21</v>
+        <v>5.8300000000000003E-21</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -5909,15 +5957,15 @@
       <c r="Y165" s="2"/>
       <c r="Z165" s="2"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A166" s="3">
-        <v>1310.0</v>
+        <v>1310</v>
       </c>
       <c r="B166" s="4">
-        <v>7.15E-19</v>
+        <v>7.1500000000000005E-19</v>
       </c>
       <c r="C166" s="4">
-        <v>5.5E-21</v>
+        <v>5.4999999999999998E-21</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -5943,15 +5991,15 @@
       <c r="Y166" s="2"/>
       <c r="Z166" s="2"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" s="3">
-        <v>1325.0</v>
+        <v>1325</v>
       </c>
       <c r="B167" s="4">
-        <v>7.13E-19</v>
+        <v>7.1299999999999998E-19</v>
       </c>
       <c r="C167" s="4">
-        <v>5.79E-21</v>
+        <v>5.7900000000000001E-21</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -5977,15 +6025,15 @@
       <c r="Y167" s="2"/>
       <c r="Z167" s="2"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" s="3">
-        <v>1340.0</v>
+        <v>1340</v>
       </c>
       <c r="B168" s="4">
-        <v>7.01E-19</v>
+        <v>7.0099999999999997E-19</v>
       </c>
       <c r="C168" s="4">
-        <v>5.7E-21</v>
+        <v>5.6999999999999996E-21</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -6011,15 +6059,15 @@
       <c r="Y168" s="2"/>
       <c r="Z168" s="2"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" s="3">
-        <v>1355.0</v>
+        <v>1355</v>
       </c>
       <c r="B169" s="4">
-        <v>7.11E-19</v>
+        <v>7.1100000000000001E-19</v>
       </c>
       <c r="C169" s="4">
-        <v>5.43E-21</v>
+        <v>5.4299999999999999E-21</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -6045,12 +6093,12 @@
       <c r="Y169" s="2"/>
       <c r="Z169" s="2"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A170" s="3">
-        <v>1370.0</v>
+        <v>1370</v>
       </c>
       <c r="B170" s="4">
-        <v>7.1E-19</v>
+        <v>7.0999999999999998E-19</v>
       </c>
       <c r="C170" s="4">
         <v>5.92E-21</v>
@@ -6079,15 +6127,15 @@
       <c r="Y170" s="2"/>
       <c r="Z170" s="2"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A171" s="3">
-        <v>1385.0</v>
+        <v>1385</v>
       </c>
       <c r="B171" s="4">
         <v>7.05E-19</v>
       </c>
       <c r="C171" s="4">
-        <v>7.34E-21</v>
+        <v>7.3399999999999996E-21</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
@@ -6113,15 +6161,15 @@
       <c r="Y171" s="2"/>
       <c r="Z171" s="2"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A172" s="3">
-        <v>1400.0</v>
+        <v>1400</v>
       </c>
       <c r="B172" s="4">
         <v>7.05E-19</v>
       </c>
       <c r="C172" s="4">
-        <v>1.67E-20</v>
+        <v>1.6700000000000001E-20</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -6147,15 +6195,15 @@
       <c r="Y172" s="2"/>
       <c r="Z172" s="2"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" s="3">
-        <v>1415.0</v>
+        <v>1415</v>
       </c>
       <c r="B173" s="4">
-        <v>7.1E-19</v>
+        <v>7.0999999999999998E-19</v>
       </c>
       <c r="C173" s="4">
-        <v>1.86E-20</v>
+        <v>1.8600000000000001E-20</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -6181,15 +6229,15 @@
       <c r="Y173" s="2"/>
       <c r="Z173" s="2"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" s="3">
-        <v>1430.0</v>
+        <v>1430</v>
       </c>
       <c r="B174" s="4">
-        <v>6.52E-19</v>
+        <v>6.5199999999999998E-19</v>
       </c>
       <c r="C174" s="4">
-        <v>1.81E-20</v>
+        <v>1.8099999999999999E-20</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -6215,9 +6263,9 @@
       <c r="Y174" s="2"/>
       <c r="Z174" s="2"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A175" s="3">
-        <v>1445.0</v>
+        <v>1445</v>
       </c>
       <c r="B175" s="4">
         <v>6.7E-19</v>
@@ -6249,12 +6297,12 @@
       <c r="Y175" s="2"/>
       <c r="Z175" s="2"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" s="3">
-        <v>1460.0</v>
+        <v>1460</v>
       </c>
       <c r="B176" s="4">
-        <v>6.8E-19</v>
+        <v>6.8000000000000004E-19</v>
       </c>
       <c r="C176" s="4">
         <v>1.73E-20</v>
@@ -6283,15 +6331,15 @@
       <c r="Y176" s="2"/>
       <c r="Z176" s="2"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A177" s="3">
-        <v>1475.0</v>
+        <v>1475</v>
       </c>
       <c r="B177" s="4">
-        <v>6.8E-19</v>
+        <v>6.8000000000000004E-19</v>
       </c>
       <c r="C177" s="4">
-        <v>1.49E-20</v>
+        <v>1.4900000000000001E-20</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
@@ -6317,15 +6365,15 @@
       <c r="Y177" s="2"/>
       <c r="Z177" s="2"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" s="3">
-        <v>1490.0</v>
+        <v>1490</v>
       </c>
       <c r="B178" s="4">
-        <v>6.79E-19</v>
+        <v>6.7900000000000001E-19</v>
       </c>
       <c r="C178" s="4">
-        <v>1.61E-20</v>
+        <v>1.6099999999999999E-20</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
@@ -6351,12 +6399,12 @@
       <c r="Y178" s="2"/>
       <c r="Z178" s="2"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A179" s="3">
-        <v>1505.0</v>
+        <v>1505</v>
       </c>
       <c r="B179" s="4">
-        <v>6.51E-19</v>
+        <v>6.5100000000000004E-19</v>
       </c>
       <c r="C179" s="4">
         <v>1.54E-20</v>
@@ -6385,9 +6433,9 @@
       <c r="Y179" s="2"/>
       <c r="Z179" s="2"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" s="3">
-        <v>1520.0</v>
+        <v>1520</v>
       </c>
       <c r="B180" s="4">
         <v>6.7E-19</v>
@@ -6419,15 +6467,15 @@
       <c r="Y180" s="2"/>
       <c r="Z180" s="2"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A181" s="3">
-        <v>1535.0</v>
+        <v>1535</v>
       </c>
       <c r="B181" s="4">
-        <v>6.42E-19</v>
+        <v>6.4200000000000003E-19</v>
       </c>
       <c r="C181" s="4">
-        <v>1.41E-20</v>
+        <v>1.4099999999999999E-20</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -6453,15 +6501,15 @@
       <c r="Y181" s="2"/>
       <c r="Z181" s="2"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A182" s="3">
-        <v>1550.0</v>
+        <v>1550</v>
       </c>
       <c r="B182" s="4">
-        <v>6.39E-19</v>
+        <v>6.3900000000000003E-19</v>
       </c>
       <c r="C182" s="4">
-        <v>1.4E-20</v>
+        <v>1.4000000000000001E-20</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -6487,12 +6535,12 @@
       <c r="Y182" s="2"/>
       <c r="Z182" s="2"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A183" s="3">
-        <v>1565.0</v>
+        <v>1565</v>
       </c>
       <c r="B183" s="4">
-        <v>6.61E-19</v>
+        <v>6.6099999999999999E-19</v>
       </c>
       <c r="C183" s="4">
         <v>1.22E-20</v>
@@ -6521,12 +6569,12 @@
       <c r="Y183" s="2"/>
       <c r="Z183" s="2"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A184" s="3">
-        <v>1580.0</v>
+        <v>1580</v>
       </c>
       <c r="B184" s="4">
-        <v>6.64E-19</v>
+        <v>6.6399999999999999E-19</v>
       </c>
       <c r="C184" s="4">
         <v>1.35E-20</v>
@@ -6555,12 +6603,12 @@
       <c r="Y184" s="2"/>
       <c r="Z184" s="2"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A185" s="3">
-        <v>1595.0</v>
+        <v>1595</v>
       </c>
       <c r="B185" s="4">
-        <v>6.31E-19</v>
+        <v>6.3099999999999996E-19</v>
       </c>
       <c r="C185" s="4">
         <v>1.15E-20</v>
@@ -6589,12 +6637,12 @@
       <c r="Y185" s="2"/>
       <c r="Z185" s="2"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A186" s="3">
-        <v>1610.0</v>
+        <v>1610</v>
       </c>
       <c r="B186" s="4">
-        <v>6.54E-19</v>
+        <v>6.5400000000000004E-19</v>
       </c>
       <c r="C186" s="4">
         <v>1.25E-20</v>
@@ -6623,15 +6671,15 @@
       <c r="Y186" s="2"/>
       <c r="Z186" s="2"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A187" s="3">
-        <v>1625.0</v>
+        <v>1625</v>
       </c>
       <c r="B187" s="4">
-        <v>6.27E-19</v>
+        <v>6.2700000000000001E-19</v>
       </c>
       <c r="C187" s="4">
-        <v>1.19E-20</v>
+        <v>1.1899999999999999E-20</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -6657,12 +6705,12 @@
       <c r="Y187" s="2"/>
       <c r="Z187" s="2"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A188" s="3">
-        <v>1640.0</v>
+        <v>1640</v>
       </c>
       <c r="B188" s="4">
-        <v>6.54E-19</v>
+        <v>6.5400000000000004E-19</v>
       </c>
       <c r="C188" s="4">
         <v>1.2E-20</v>
@@ -6691,12 +6739,12 @@
       <c r="Y188" s="2"/>
       <c r="Z188" s="2"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A189" s="3">
-        <v>1655.0</v>
+        <v>1655</v>
       </c>
       <c r="B189" s="4">
-        <v>6.48E-19</v>
+        <v>6.4800000000000004E-19</v>
       </c>
       <c r="C189" s="4">
         <v>1.02E-20</v>
@@ -6725,12 +6773,12 @@
       <c r="Y189" s="2"/>
       <c r="Z189" s="2"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A190" s="3">
-        <v>1670.0</v>
+        <v>1670</v>
       </c>
       <c r="B190" s="4">
-        <v>6.31E-19</v>
+        <v>6.3099999999999996E-19</v>
       </c>
       <c r="C190" s="4">
         <v>1.1E-20</v>
@@ -6759,15 +6807,15 @@
       <c r="Y190" s="2"/>
       <c r="Z190" s="2"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A191" s="3">
-        <v>1685.0</v>
+        <v>1685</v>
       </c>
       <c r="B191" s="4">
-        <v>6.53E-19</v>
+        <v>6.5300000000000001E-19</v>
       </c>
       <c r="C191" s="4">
-        <v>1.09E-20</v>
+        <v>1.0900000000000001E-20</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
@@ -6793,15 +6841,15 @@
       <c r="Y191" s="2"/>
       <c r="Z191" s="2"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A192" s="3">
-        <v>1700.0</v>
+        <v>1700</v>
       </c>
       <c r="B192" s="4">
-        <v>6.3E-19</v>
+        <v>6.3000000000000002E-19</v>
       </c>
       <c r="C192" s="4">
-        <v>1.04E-20</v>
+        <v>1.0400000000000001E-20</v>
       </c>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
@@ -6827,12 +6875,12 @@
       <c r="Y192" s="2"/>
       <c r="Z192" s="2"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A193" s="3">
-        <v>1715.0</v>
+        <v>1715</v>
       </c>
       <c r="B193" s="4">
-        <v>6.3E-19</v>
+        <v>6.3000000000000002E-19</v>
       </c>
       <c r="C193" s="4">
         <v>1.02E-20</v>
@@ -6861,12 +6909,12 @@
       <c r="Y193" s="2"/>
       <c r="Z193" s="2"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A194" s="3">
-        <v>1730.0</v>
+        <v>1730</v>
       </c>
       <c r="B194" s="4">
-        <v>6.46E-19</v>
+        <v>6.4599999999999997E-19</v>
       </c>
       <c r="C194" s="4">
         <v>9.2E-21</v>
@@ -6895,15 +6943,15 @@
       <c r="Y194" s="2"/>
       <c r="Z194" s="2"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A195" s="3">
-        <v>1745.0</v>
+        <v>1745</v>
       </c>
       <c r="B195" s="4">
-        <v>6.23E-19</v>
+        <v>6.2299999999999998E-19</v>
       </c>
       <c r="C195" s="4">
-        <v>9.82E-21</v>
+        <v>9.8200000000000001E-21</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
@@ -6929,15 +6977,15 @@
       <c r="Y195" s="2"/>
       <c r="Z195" s="2"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A196" s="3">
-        <v>1760.0</v>
+        <v>1760</v>
       </c>
       <c r="B196" s="4">
-        <v>6.27E-19</v>
+        <v>6.2700000000000001E-19</v>
       </c>
       <c r="C196" s="4">
-        <v>9.61E-21</v>
+        <v>9.6100000000000003E-21</v>
       </c>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
@@ -6963,12 +7011,12 @@
       <c r="Y196" s="2"/>
       <c r="Z196" s="2"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A197" s="3">
-        <v>1775.0</v>
+        <v>1775</v>
       </c>
       <c r="B197" s="4">
-        <v>6.21E-19</v>
+        <v>6.2100000000000001E-19</v>
       </c>
       <c r="C197" s="4">
         <v>9.51E-21</v>
@@ -6997,15 +7045,15 @@
       <c r="Y197" s="2"/>
       <c r="Z197" s="2"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A198" s="3">
-        <v>1790.0</v>
+        <v>1790</v>
       </c>
       <c r="B198" s="4">
-        <v>6.27E-19</v>
+        <v>6.2700000000000001E-19</v>
       </c>
       <c r="C198" s="4">
-        <v>8.3E-21</v>
+        <v>8.3000000000000002E-21</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
@@ -7031,15 +7079,15 @@
       <c r="Y198" s="2"/>
       <c r="Z198" s="2"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A199" s="3">
-        <v>1805.0</v>
+        <v>1805</v>
       </c>
       <c r="B199" s="4">
-        <v>6.27E-19</v>
+        <v>6.2700000000000001E-19</v>
       </c>
       <c r="C199" s="4">
-        <v>8.88E-21</v>
+        <v>8.8799999999999993E-21</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
@@ -7065,15 +7113,15 @@
       <c r="Y199" s="2"/>
       <c r="Z199" s="2"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A200" s="3">
-        <v>1820.0</v>
+        <v>1820</v>
       </c>
       <c r="B200" s="4">
-        <v>6.23E-19</v>
+        <v>6.2299999999999998E-19</v>
       </c>
       <c r="C200" s="4">
-        <v>9.62E-21</v>
+        <v>9.6199999999999995E-21</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
@@ -7099,15 +7147,15 @@
       <c r="Y200" s="2"/>
       <c r="Z200" s="2"/>
     </row>
-    <row r="201">
+    <row r="201" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A201" s="3">
-        <v>1835.0</v>
+        <v>1835</v>
       </c>
       <c r="B201" s="4">
-        <v>6.17E-19</v>
+        <v>6.1699999999999997E-19</v>
       </c>
       <c r="C201" s="4">
-        <v>7.74E-21</v>
+        <v>7.7399999999999994E-21</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
@@ -7133,12 +7181,12 @@
       <c r="Y201" s="2"/>
       <c r="Z201" s="2"/>
     </row>
-    <row r="202">
+    <row r="202" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A202" s="3">
-        <v>1850.0</v>
+        <v>1850</v>
       </c>
       <c r="B202" s="4">
-        <v>6.14E-19</v>
+        <v>6.1399999999999997E-19</v>
       </c>
       <c r="C202" s="4">
         <v>8.25E-21</v>
@@ -7167,12 +7215,12 @@
       <c r="Y202" s="2"/>
       <c r="Z202" s="2"/>
     </row>
-    <row r="203">
+    <row r="203" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A203" s="3">
-        <v>1865.0</v>
+        <v>1865</v>
       </c>
       <c r="B203" s="4">
-        <v>6.23E-19</v>
+        <v>6.2299999999999998E-19</v>
       </c>
       <c r="C203" s="4">
         <v>8.06E-21</v>
@@ -7201,15 +7249,15 @@
       <c r="Y203" s="2"/>
       <c r="Z203" s="2"/>
     </row>
-    <row r="204">
+    <row r="204" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A204" s="3">
-        <v>1880.0</v>
+        <v>1880</v>
       </c>
       <c r="B204" s="4">
-        <v>5.78E-19</v>
+        <v>5.7800000000000003E-19</v>
       </c>
       <c r="C204" s="4">
-        <v>2.46E-20</v>
+        <v>2.4600000000000001E-20</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
@@ -7235,15 +7283,15 @@
       <c r="Y204" s="2"/>
       <c r="Z204" s="2"/>
     </row>
-    <row r="205">
+    <row r="205" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A205" s="3">
-        <v>1895.0</v>
+        <v>1895</v>
       </c>
       <c r="B205" s="4">
-        <v>6.0E-19</v>
+        <v>5.9999999999999999E-19</v>
       </c>
       <c r="C205" s="4">
-        <v>2.39E-20</v>
+        <v>2.3899999999999999E-20</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
@@ -7269,12 +7317,12 @@
       <c r="Y205" s="2"/>
       <c r="Z205" s="2"/>
     </row>
-    <row r="206">
+    <row r="206" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A206" s="3">
-        <v>1910.0</v>
+        <v>1910</v>
       </c>
       <c r="B206" s="4">
-        <v>6.21E-19</v>
+        <v>6.2100000000000001E-19</v>
       </c>
       <c r="C206" s="4">
         <v>2.33E-20</v>
@@ -7303,15 +7351,15 @@
       <c r="Y206" s="2"/>
       <c r="Z206" s="2"/>
     </row>
-    <row r="207">
+    <row r="207" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A207" s="3">
-        <v>1925.0</v>
+        <v>1925</v>
       </c>
       <c r="B207" s="4">
-        <v>6.19E-19</v>
+        <v>6.1900000000000004E-19</v>
       </c>
       <c r="C207" s="4">
-        <v>2.26E-20</v>
+        <v>2.2600000000000001E-20</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
@@ -7337,15 +7385,15 @@
       <c r="Y207" s="2"/>
       <c r="Z207" s="2"/>
     </row>
-    <row r="208">
+    <row r="208" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A208" s="3">
-        <v>1940.0</v>
+        <v>1940</v>
       </c>
       <c r="B208" s="4">
-        <v>6.01E-19</v>
+        <v>6.0100000000000002E-19</v>
       </c>
       <c r="C208" s="4">
-        <v>1.96E-20</v>
+        <v>1.9600000000000001E-20</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
@@ -7371,15 +7419,15 @@
       <c r="Y208" s="2"/>
       <c r="Z208" s="2"/>
     </row>
-    <row r="209">
+    <row r="209" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A209" s="3">
-        <v>1955.0</v>
+        <v>1955</v>
       </c>
       <c r="B209" s="4">
         <v>5.86E-19</v>
       </c>
       <c r="C209" s="4">
-        <v>2.11E-20</v>
+        <v>2.1099999999999999E-20</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
@@ -7405,15 +7453,15 @@
       <c r="Y209" s="2"/>
       <c r="Z209" s="2"/>
     </row>
-    <row r="210">
+    <row r="210" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A210" s="3">
-        <v>1970.0</v>
+        <v>1970</v>
       </c>
       <c r="B210" s="4">
-        <v>6.07E-19</v>
+        <v>6.0700000000000002E-19</v>
       </c>
       <c r="C210" s="4">
-        <v>2.38E-20</v>
+        <v>2.3799999999999999E-20</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
@@ -7439,15 +7487,15 @@
       <c r="Y210" s="2"/>
       <c r="Z210" s="2"/>
     </row>
-    <row r="211">
+    <row r="211" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A211" s="3">
-        <v>1985.0</v>
+        <v>1985</v>
       </c>
       <c r="B211" s="4">
         <v>6.12E-19</v>
       </c>
       <c r="C211" s="4">
-        <v>1.8E-20</v>
+        <v>1.7999999999999999E-20</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
@@ -7473,15 +7521,15 @@
       <c r="Y211" s="2"/>
       <c r="Z211" s="2"/>
     </row>
-    <row r="212">
+    <row r="212" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A212" s="3">
-        <v>2000.0</v>
+        <v>2000</v>
       </c>
       <c r="B212" s="4">
-        <v>6.26E-19</v>
+        <v>6.2599999999999998E-19</v>
       </c>
       <c r="C212" s="4">
-        <v>2.25E-20</v>
+        <v>2.2500000000000001E-20</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
@@ -7507,15 +7555,15 @@
       <c r="Y212" s="2"/>
       <c r="Z212" s="2"/>
     </row>
-    <row r="213">
+    <row r="213" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A213" s="3">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="B213" s="4">
         <v>5.83E-19</v>
       </c>
       <c r="C213" s="4">
-        <v>1.7E-20</v>
+        <v>1.6999999999999999E-20</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
@@ -7541,12 +7589,12 @@
       <c r="Y213" s="2"/>
       <c r="Z213" s="2"/>
     </row>
-    <row r="214">
+    <row r="214" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A214" s="3">
-        <v>2030.0</v>
+        <v>2030</v>
       </c>
       <c r="B214" s="4">
-        <v>5.89E-19</v>
+        <v>5.8900000000000001E-19</v>
       </c>
       <c r="C214" s="4">
         <v>1.83E-20</v>
@@ -7575,15 +7623,15 @@
       <c r="Y214" s="2"/>
       <c r="Z214" s="2"/>
     </row>
-    <row r="215">
+    <row r="215" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A215" s="3">
-        <v>2045.0</v>
+        <v>2045</v>
       </c>
       <c r="B215" s="4">
-        <v>5.91E-19</v>
+        <v>5.9099999999999998E-19</v>
       </c>
       <c r="C215" s="4">
-        <v>1.78E-20</v>
+        <v>1.7800000000000001E-20</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
@@ -7609,12 +7657,12 @@
       <c r="Y215" s="2"/>
       <c r="Z215" s="2"/>
     </row>
-    <row r="216">
+    <row r="216" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A216" s="3">
-        <v>2060.0</v>
+        <v>2060</v>
       </c>
       <c r="B216" s="4">
-        <v>5.89E-19</v>
+        <v>5.8900000000000001E-19</v>
       </c>
       <c r="C216" s="4">
         <v>1.74E-20</v>
@@ -7643,15 +7691,15 @@
       <c r="Y216" s="2"/>
       <c r="Z216" s="2"/>
     </row>
-    <row r="217">
+    <row r="217" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A217" s="3">
-        <v>2075.0</v>
+        <v>2075</v>
       </c>
       <c r="B217" s="4">
         <v>5.83E-19</v>
       </c>
       <c r="C217" s="4">
-        <v>1.7E-20</v>
+        <v>1.6999999999999999E-20</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -7677,12 +7725,12 @@
       <c r="Y217" s="2"/>
       <c r="Z217" s="2"/>
     </row>
-    <row r="218">
+    <row r="218" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A218" s="3">
-        <v>2090.0</v>
+        <v>2090</v>
       </c>
       <c r="B218" s="4">
-        <v>5.61E-19</v>
+        <v>5.6100000000000004E-19</v>
       </c>
       <c r="C218" s="4">
         <v>1.65E-20</v>
@@ -7711,15 +7759,15 @@
       <c r="Y218" s="2"/>
       <c r="Z218" s="2"/>
     </row>
-    <row r="219">
+    <row r="219" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A219" s="3">
-        <v>2105.0</v>
+        <v>2105</v>
       </c>
       <c r="B219" s="4">
         <v>5.86E-19</v>
       </c>
       <c r="C219" s="4">
-        <v>1.61E-20</v>
+        <v>1.6099999999999999E-20</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
@@ -7745,15 +7793,15 @@
       <c r="Y219" s="2"/>
       <c r="Z219" s="2"/>
     </row>
-    <row r="220">
+    <row r="220" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A220" s="3">
-        <v>2120.0</v>
+        <v>2120</v>
       </c>
       <c r="B220" s="4">
-        <v>5.75E-19</v>
+        <v>5.7500000000000002E-19</v>
       </c>
       <c r="C220" s="4">
-        <v>1.57E-20</v>
+        <v>1.5700000000000001E-20</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -7779,15 +7827,15 @@
       <c r="Y220" s="2"/>
       <c r="Z220" s="2"/>
     </row>
-    <row r="221">
+    <row r="221" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A221" s="3">
-        <v>2135.0</v>
+        <v>2135</v>
       </c>
       <c r="B221" s="4">
-        <v>5.79E-19</v>
+        <v>5.7899999999999996E-19</v>
       </c>
       <c r="C221" s="4">
-        <v>1.53E-20</v>
+        <v>1.5299999999999999E-20</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
@@ -7813,15 +7861,15 @@
       <c r="Y221" s="2"/>
       <c r="Z221" s="2"/>
     </row>
-    <row r="222">
+    <row r="222" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A222" s="3">
-        <v>2150.0</v>
+        <v>2150</v>
       </c>
       <c r="B222" s="4">
-        <v>5.82E-19</v>
+        <v>5.8199999999999997E-19</v>
       </c>
       <c r="C222" s="4">
-        <v>1.49E-20</v>
+        <v>1.4900000000000001E-20</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -7847,12 +7895,12 @@
       <c r="Y222" s="2"/>
       <c r="Z222" s="2"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A223" s="3">
-        <v>2165.0</v>
+        <v>2165</v>
       </c>
       <c r="B223" s="4">
-        <v>5.77E-19</v>
+        <v>5.7699999999999999E-19</v>
       </c>
       <c r="C223" s="4">
         <v>1.45E-20</v>
@@ -7881,15 +7929,15 @@
       <c r="Y223" s="2"/>
       <c r="Z223" s="2"/>
     </row>
-    <row r="224">
+    <row r="224" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A224" s="3">
-        <v>2180.0</v>
+        <v>2180</v>
       </c>
       <c r="B224" s="4">
-        <v>5.73E-19</v>
+        <v>5.7299999999999996E-19</v>
       </c>
       <c r="C224" s="4">
-        <v>1.42E-20</v>
+        <v>1.4199999999999999E-20</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -7915,15 +7963,15 @@
       <c r="Y224" s="2"/>
       <c r="Z224" s="2"/>
     </row>
-    <row r="225">
+    <row r="225" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A225" s="3">
-        <v>2195.0</v>
+        <v>2195</v>
       </c>
       <c r="B225" s="4">
-        <v>5.56E-19</v>
+        <v>5.5599999999999997E-19</v>
       </c>
       <c r="C225" s="4">
-        <v>1.38E-20</v>
+        <v>1.3800000000000001E-20</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -7949,12 +7997,12 @@
       <c r="Y225" s="2"/>
       <c r="Z225" s="2"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A226" s="3">
-        <v>2210.0</v>
+        <v>2210</v>
       </c>
       <c r="B226" s="4">
-        <v>5.63E-19</v>
+        <v>5.6300000000000001E-19</v>
       </c>
       <c r="C226" s="4">
         <v>1.35E-20</v>
@@ -7983,12 +8031,12 @@
       <c r="Y226" s="2"/>
       <c r="Z226" s="2"/>
     </row>
-    <row r="227">
+    <row r="227" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A227" s="3">
-        <v>2225.0</v>
+        <v>2225</v>
       </c>
       <c r="B227" s="4">
-        <v>5.74E-19</v>
+        <v>5.7399999999999999E-19</v>
       </c>
       <c r="C227" s="4">
         <v>1.32E-20</v>
@@ -8017,15 +8065,15 @@
       <c r="Y227" s="2"/>
       <c r="Z227" s="2"/>
     </row>
-    <row r="228">
+    <row r="228" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A228" s="3">
-        <v>2240.0</v>
+        <v>2240</v>
       </c>
       <c r="B228" s="4">
-        <v>5.66E-19</v>
+        <v>5.6600000000000001E-19</v>
       </c>
       <c r="C228" s="4">
-        <v>1.28E-20</v>
+        <v>1.2800000000000001E-20</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -8051,12 +8099,12 @@
       <c r="Y228" s="2"/>
       <c r="Z228" s="2"/>
     </row>
-    <row r="229">
+    <row r="229" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A229" s="3">
-        <v>2255.0</v>
+        <v>2255</v>
       </c>
       <c r="B229" s="4">
-        <v>5.76E-19</v>
+        <v>5.7599999999999996E-19</v>
       </c>
       <c r="C229" s="4">
         <v>1.25E-20</v>
@@ -8085,15 +8133,15 @@
       <c r="Y229" s="2"/>
       <c r="Z229" s="2"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A230" s="3">
-        <v>2270.0</v>
+        <v>2270</v>
       </c>
       <c r="B230" s="4">
-        <v>5.67E-19</v>
+        <v>5.6700000000000005E-19</v>
       </c>
       <c r="C230" s="4">
-        <v>1.23E-20</v>
+        <v>1.2300000000000001E-20</v>
       </c>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
@@ -8119,12 +8167,12 @@
       <c r="Y230" s="2"/>
       <c r="Z230" s="2"/>
     </row>
-    <row r="231">
+    <row r="231" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A231" s="3">
-        <v>2285.0</v>
+        <v>2285</v>
       </c>
       <c r="B231" s="4">
-        <v>5.94E-19</v>
+        <v>5.9399999999999998E-19</v>
       </c>
       <c r="C231" s="4">
         <v>1.2E-20</v>
@@ -8153,9 +8201,9 @@
       <c r="Y231" s="2"/>
       <c r="Z231" s="2"/>
     </row>
-    <row r="232">
+    <row r="232" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A232" s="3">
-        <v>2300.0</v>
+        <v>2300</v>
       </c>
       <c r="B232" s="4">
         <v>5.51E-19</v>
@@ -8187,1035 +8235,1035 @@
       <c r="Y232" s="2"/>
       <c r="Z232" s="2"/>
     </row>
-    <row r="233">
+    <row r="233" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="B233" s="7"/>
       <c r="C233" s="7"/>
     </row>
-    <row r="234">
+    <row r="234" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="B234" s="7"/>
       <c r="C234" s="7"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="B235" s="7"/>
       <c r="C235" s="7"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="B236" s="7"/>
       <c r="C236" s="7"/>
     </row>
-    <row r="237">
+    <row r="237" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="B237" s="7"/>
       <c r="C237" s="7"/>
     </row>
-    <row r="238">
+    <row r="238" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="B238" s="7"/>
       <c r="C238" s="7"/>
     </row>
-    <row r="239">
+    <row r="239" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="B239" s="7"/>
       <c r="C239" s="7"/>
     </row>
-    <row r="240">
+    <row r="240" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="B240" s="7"/>
       <c r="C240" s="7"/>
     </row>
-    <row r="241">
+    <row r="241" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B241" s="7"/>
       <c r="C241" s="7"/>
     </row>
-    <row r="242">
+    <row r="242" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B242" s="7"/>
       <c r="C242" s="7"/>
     </row>
-    <row r="243">
+    <row r="243" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B243" s="7"/>
       <c r="C243" s="7"/>
     </row>
-    <row r="244">
+    <row r="244" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B244" s="7"/>
       <c r="C244" s="7"/>
     </row>
-    <row r="245">
+    <row r="245" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B245" s="7"/>
       <c r="C245" s="7"/>
     </row>
-    <row r="246">
+    <row r="246" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B246" s="7"/>
       <c r="C246" s="7"/>
     </row>
-    <row r="247">
+    <row r="247" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B247" s="7"/>
       <c r="C247" s="7"/>
     </row>
-    <row r="248">
+    <row r="248" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B248" s="7"/>
       <c r="C248" s="7"/>
     </row>
-    <row r="249">
+    <row r="249" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B249" s="7"/>
       <c r="C249" s="7"/>
     </row>
-    <row r="250">
+    <row r="250" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B250" s="7"/>
       <c r="C250" s="7"/>
     </row>
-    <row r="251">
+    <row r="251" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B251" s="7"/>
       <c r="C251" s="7"/>
     </row>
-    <row r="252">
+    <row r="252" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B252" s="7"/>
       <c r="C252" s="7"/>
     </row>
-    <row r="253">
+    <row r="253" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B253" s="7"/>
       <c r="C253" s="7"/>
     </row>
-    <row r="254">
+    <row r="254" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B254" s="7"/>
       <c r="C254" s="7"/>
     </row>
-    <row r="255">
+    <row r="255" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B255" s="7"/>
       <c r="C255" s="7"/>
     </row>
-    <row r="256">
+    <row r="256" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B256" s="7"/>
       <c r="C256" s="7"/>
     </row>
-    <row r="257">
+    <row r="257" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B257" s="7"/>
       <c r="C257" s="7"/>
     </row>
-    <row r="258">
+    <row r="258" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B258" s="7"/>
       <c r="C258" s="7"/>
     </row>
-    <row r="259">
+    <row r="259" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B259" s="7"/>
       <c r="C259" s="7"/>
     </row>
-    <row r="260">
+    <row r="260" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B260" s="7"/>
       <c r="C260" s="7"/>
     </row>
-    <row r="261">
+    <row r="261" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B261" s="7"/>
       <c r="C261" s="7"/>
     </row>
-    <row r="262">
+    <row r="262" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B262" s="7"/>
       <c r="C262" s="7"/>
     </row>
-    <row r="263">
+    <row r="263" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B263" s="7"/>
       <c r="C263" s="7"/>
     </row>
-    <row r="264">
+    <row r="264" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B264" s="7"/>
       <c r="C264" s="7"/>
     </row>
-    <row r="265">
+    <row r="265" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B265" s="7"/>
       <c r="C265" s="7"/>
     </row>
-    <row r="266">
+    <row r="266" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B266" s="7"/>
       <c r="C266" s="7"/>
     </row>
-    <row r="267">
+    <row r="267" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B267" s="7"/>
       <c r="C267" s="7"/>
     </row>
-    <row r="268">
+    <row r="268" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B268" s="7"/>
       <c r="C268" s="7"/>
     </row>
-    <row r="269">
+    <row r="269" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B269" s="7"/>
       <c r="C269" s="7"/>
     </row>
-    <row r="270">
+    <row r="270" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B270" s="7"/>
       <c r="C270" s="7"/>
     </row>
-    <row r="271">
+    <row r="271" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B271" s="7"/>
       <c r="C271" s="7"/>
     </row>
-    <row r="272">
+    <row r="272" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B272" s="7"/>
       <c r="C272" s="7"/>
     </row>
-    <row r="273">
+    <row r="273" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B273" s="7"/>
       <c r="C273" s="7"/>
     </row>
-    <row r="274">
+    <row r="274" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B274" s="7"/>
       <c r="C274" s="7"/>
     </row>
-    <row r="275">
+    <row r="275" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B275" s="7"/>
       <c r="C275" s="7"/>
     </row>
-    <row r="276">
+    <row r="276" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B276" s="7"/>
       <c r="C276" s="7"/>
     </row>
-    <row r="277">
+    <row r="277" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B277" s="7"/>
       <c r="C277" s="7"/>
     </row>
-    <row r="278">
+    <row r="278" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B278" s="7"/>
       <c r="C278" s="7"/>
     </row>
-    <row r="279">
+    <row r="279" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B279" s="7"/>
       <c r="C279" s="7"/>
     </row>
-    <row r="280">
+    <row r="280" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B280" s="7"/>
       <c r="C280" s="7"/>
     </row>
-    <row r="281">
+    <row r="281" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B281" s="7"/>
       <c r="C281" s="7"/>
     </row>
-    <row r="282">
+    <row r="282" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B282" s="7"/>
       <c r="C282" s="7"/>
     </row>
-    <row r="283">
+    <row r="283" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B283" s="7"/>
       <c r="C283" s="7"/>
     </row>
-    <row r="284">
+    <row r="284" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B284" s="7"/>
       <c r="C284" s="7"/>
     </row>
-    <row r="285">
+    <row r="285" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B285" s="7"/>
       <c r="C285" s="7"/>
     </row>
-    <row r="286">
+    <row r="286" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B286" s="7"/>
       <c r="C286" s="7"/>
     </row>
-    <row r="287">
+    <row r="287" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B287" s="7"/>
       <c r="C287" s="7"/>
     </row>
-    <row r="288">
+    <row r="288" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B288" s="7"/>
       <c r="C288" s="7"/>
     </row>
-    <row r="289">
+    <row r="289" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B289" s="7"/>
       <c r="C289" s="7"/>
     </row>
-    <row r="290">
+    <row r="290" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B290" s="7"/>
       <c r="C290" s="7"/>
     </row>
-    <row r="291">
+    <row r="291" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B291" s="7"/>
       <c r="C291" s="7"/>
     </row>
-    <row r="292">
+    <row r="292" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B292" s="7"/>
       <c r="C292" s="7"/>
     </row>
-    <row r="293">
+    <row r="293" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B293" s="7"/>
       <c r="C293" s="7"/>
     </row>
-    <row r="294">
+    <row r="294" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B294" s="7"/>
       <c r="C294" s="7"/>
     </row>
-    <row r="295">
+    <row r="295" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B295" s="7"/>
       <c r="C295" s="7"/>
     </row>
-    <row r="296">
+    <row r="296" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B296" s="7"/>
       <c r="C296" s="7"/>
     </row>
-    <row r="297">
+    <row r="297" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B297" s="7"/>
       <c r="C297" s="7"/>
     </row>
-    <row r="298">
+    <row r="298" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B298" s="7"/>
       <c r="C298" s="7"/>
     </row>
-    <row r="299">
+    <row r="299" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B299" s="7"/>
       <c r="C299" s="7"/>
     </row>
-    <row r="300">
+    <row r="300" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B300" s="7"/>
       <c r="C300" s="7"/>
     </row>
-    <row r="301">
+    <row r="301" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B301" s="7"/>
       <c r="C301" s="7"/>
     </row>
-    <row r="302">
+    <row r="302" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B302" s="7"/>
       <c r="C302" s="7"/>
     </row>
-    <row r="303">
+    <row r="303" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B303" s="7"/>
       <c r="C303" s="7"/>
     </row>
-    <row r="304">
+    <row r="304" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B304" s="7"/>
       <c r="C304" s="7"/>
     </row>
-    <row r="305">
+    <row r="305" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B305" s="7"/>
       <c r="C305" s="7"/>
     </row>
-    <row r="306">
+    <row r="306" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B306" s="7"/>
       <c r="C306" s="7"/>
     </row>
-    <row r="307">
+    <row r="307" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B307" s="7"/>
       <c r="C307" s="7"/>
     </row>
-    <row r="308">
+    <row r="308" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B308" s="7"/>
       <c r="C308" s="7"/>
     </row>
-    <row r="309">
+    <row r="309" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B309" s="7"/>
       <c r="C309" s="7"/>
     </row>
-    <row r="310">
+    <row r="310" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B310" s="7"/>
       <c r="C310" s="7"/>
     </row>
-    <row r="311">
+    <row r="311" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B311" s="7"/>
       <c r="C311" s="7"/>
     </row>
-    <row r="312">
+    <row r="312" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B312" s="7"/>
       <c r="C312" s="7"/>
     </row>
-    <row r="313">
+    <row r="313" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B313" s="7"/>
       <c r="C313" s="7"/>
     </row>
-    <row r="314">
+    <row r="314" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B314" s="7"/>
       <c r="C314" s="7"/>
     </row>
-    <row r="315">
+    <row r="315" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B315" s="7"/>
       <c r="C315" s="7"/>
     </row>
-    <row r="316">
+    <row r="316" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B316" s="7"/>
       <c r="C316" s="7"/>
     </row>
-    <row r="317">
+    <row r="317" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B317" s="7"/>
       <c r="C317" s="7"/>
     </row>
-    <row r="318">
+    <row r="318" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B318" s="7"/>
       <c r="C318" s="7"/>
     </row>
-    <row r="319">
+    <row r="319" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B319" s="7"/>
       <c r="C319" s="7"/>
     </row>
-    <row r="355">
+    <row r="355" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B355" s="7"/>
       <c r="C355" s="7"/>
     </row>
-    <row r="356">
+    <row r="356" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B356" s="7"/>
       <c r="C356" s="7"/>
     </row>
-    <row r="357">
+    <row r="357" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B357" s="7"/>
       <c r="C357" s="7"/>
     </row>
-    <row r="358">
+    <row r="358" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B358" s="7"/>
       <c r="C358" s="7"/>
     </row>
-    <row r="359">
+    <row r="359" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B359" s="7"/>
       <c r="C359" s="7"/>
     </row>
-    <row r="360">
+    <row r="360" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B360" s="7"/>
       <c r="C360" s="7"/>
     </row>
-    <row r="361">
+    <row r="361" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B361" s="7"/>
       <c r="C361" s="7"/>
     </row>
-    <row r="362">
+    <row r="362" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B362" s="7"/>
       <c r="C362" s="7"/>
     </row>
-    <row r="363">
+    <row r="363" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B363" s="7"/>
       <c r="C363" s="7"/>
     </row>
-    <row r="364">
+    <row r="364" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B364" s="7"/>
       <c r="C364" s="7"/>
     </row>
-    <row r="365">
+    <row r="365" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B365" s="7"/>
       <c r="C365" s="7"/>
     </row>
-    <row r="366">
+    <row r="366" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B366" s="7"/>
       <c r="C366" s="7"/>
     </row>
-    <row r="367">
+    <row r="367" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B367" s="7"/>
       <c r="C367" s="7"/>
     </row>
-    <row r="368">
+    <row r="368" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B368" s="7"/>
       <c r="C368" s="7"/>
     </row>
-    <row r="369">
+    <row r="369" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B369" s="7"/>
       <c r="C369" s="7"/>
     </row>
-    <row r="370">
+    <row r="370" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B370" s="7"/>
       <c r="C370" s="7"/>
     </row>
-    <row r="371">
+    <row r="371" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B371" s="7"/>
       <c r="C371" s="7"/>
     </row>
-    <row r="372">
+    <row r="372" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B372" s="7"/>
       <c r="C372" s="7"/>
     </row>
-    <row r="373">
+    <row r="373" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B373" s="7"/>
       <c r="C373" s="7"/>
     </row>
-    <row r="374">
+    <row r="374" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B374" s="7"/>
       <c r="C374" s="7"/>
     </row>
-    <row r="375">
+    <row r="375" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B375" s="7"/>
       <c r="C375" s="7"/>
     </row>
-    <row r="376">
+    <row r="376" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B376" s="7"/>
       <c r="C376" s="7"/>
     </row>
-    <row r="377">
+    <row r="377" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B377" s="7"/>
       <c r="C377" s="7"/>
     </row>
-    <row r="378">
+    <row r="378" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B378" s="7"/>
       <c r="C378" s="7"/>
     </row>
-    <row r="379">
+    <row r="379" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B379" s="7"/>
       <c r="C379" s="7"/>
     </row>
-    <row r="380">
+    <row r="380" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B380" s="7"/>
       <c r="C380" s="7"/>
     </row>
-    <row r="381">
+    <row r="381" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B381" s="7"/>
       <c r="C381" s="7"/>
     </row>
-    <row r="382">
+    <row r="382" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B382" s="7"/>
       <c r="C382" s="7"/>
     </row>
-    <row r="383">
+    <row r="383" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B383" s="7"/>
       <c r="C383" s="7"/>
     </row>
-    <row r="384">
+    <row r="384" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B384" s="7"/>
       <c r="C384" s="7"/>
     </row>
-    <row r="385">
+    <row r="385" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B385" s="7"/>
       <c r="C385" s="7"/>
     </row>
-    <row r="386">
+    <row r="386" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B386" s="7"/>
       <c r="C386" s="7"/>
     </row>
-    <row r="387">
+    <row r="387" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B387" s="7"/>
       <c r="C387" s="7"/>
     </row>
-    <row r="388">
+    <row r="388" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B388" s="7"/>
       <c r="C388" s="7"/>
     </row>
-    <row r="389">
+    <row r="389" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B389" s="7"/>
       <c r="C389" s="7"/>
     </row>
-    <row r="390">
+    <row r="390" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B390" s="7"/>
       <c r="C390" s="7"/>
     </row>
-    <row r="391">
+    <row r="391" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B391" s="7"/>
       <c r="C391" s="7"/>
     </row>
-    <row r="392">
+    <row r="392" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B392" s="7"/>
       <c r="C392" s="7"/>
     </row>
-    <row r="393">
+    <row r="393" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B393" s="7"/>
       <c r="C393" s="7"/>
     </row>
-    <row r="394">
+    <row r="394" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B394" s="7"/>
       <c r="C394" s="7"/>
     </row>
-    <row r="395">
+    <row r="395" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B395" s="7"/>
       <c r="C395" s="7"/>
     </row>
-    <row r="396">
+    <row r="396" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B396" s="7"/>
       <c r="C396" s="7"/>
     </row>
-    <row r="397">
+    <row r="397" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B397" s="7"/>
       <c r="C397" s="7"/>
     </row>
-    <row r="398">
+    <row r="398" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B398" s="7"/>
       <c r="C398" s="7"/>
     </row>
-    <row r="399">
+    <row r="399" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B399" s="7"/>
       <c r="C399" s="7"/>
     </row>
-    <row r="400">
+    <row r="400" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B400" s="7"/>
       <c r="C400" s="7"/>
     </row>
-    <row r="401">
+    <row r="401" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B401" s="7"/>
       <c r="C401" s="7"/>
     </row>
-    <row r="402">
+    <row r="402" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B402" s="7"/>
       <c r="C402" s="7"/>
     </row>
-    <row r="403">
+    <row r="403" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B403" s="7"/>
       <c r="C403" s="7"/>
     </row>
-    <row r="404">
+    <row r="404" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B404" s="7"/>
       <c r="C404" s="7"/>
     </row>
-    <row r="405">
+    <row r="405" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B405" s="7"/>
       <c r="C405" s="7"/>
     </row>
-    <row r="406">
+    <row r="406" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B406" s="7"/>
       <c r="C406" s="7"/>
     </row>
-    <row r="407">
+    <row r="407" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B407" s="7"/>
       <c r="C407" s="7"/>
     </row>
-    <row r="408">
+    <row r="408" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B408" s="7"/>
       <c r="C408" s="7"/>
     </row>
-    <row r="409">
+    <row r="409" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B409" s="7"/>
       <c r="C409" s="7"/>
     </row>
-    <row r="410">
+    <row r="410" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B410" s="7"/>
       <c r="C410" s="7"/>
     </row>
-    <row r="411">
+    <row r="411" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B411" s="7"/>
       <c r="C411" s="7"/>
     </row>
-    <row r="412">
+    <row r="412" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B412" s="7"/>
       <c r="C412" s="7"/>
     </row>
-    <row r="413">
+    <row r="413" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B413" s="7"/>
       <c r="C413" s="7"/>
     </row>
-    <row r="414">
+    <row r="414" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B414" s="7"/>
       <c r="C414" s="7"/>
     </row>
-    <row r="415">
+    <row r="415" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B415" s="7"/>
       <c r="C415" s="7"/>
     </row>
-    <row r="416">
+    <row r="416" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B416" s="7"/>
       <c r="C416" s="7"/>
     </row>
-    <row r="417">
+    <row r="417" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B417" s="7"/>
       <c r="C417" s="7"/>
     </row>
-    <row r="418">
+    <row r="418" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B418" s="7"/>
       <c r="C418" s="7"/>
     </row>
-    <row r="419">
+    <row r="419" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B419" s="7"/>
       <c r="C419" s="7"/>
     </row>
-    <row r="420">
+    <row r="420" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B420" s="7"/>
       <c r="C420" s="7"/>
     </row>
-    <row r="421">
+    <row r="421" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B421" s="7"/>
       <c r="C421" s="7"/>
     </row>
-    <row r="422">
+    <row r="422" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B422" s="7"/>
       <c r="C422" s="7"/>
     </row>
-    <row r="423">
+    <row r="423" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B423" s="7"/>
       <c r="C423" s="7"/>
     </row>
-    <row r="424">
+    <row r="424" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B424" s="7"/>
       <c r="C424" s="7"/>
     </row>
-    <row r="425">
+    <row r="425" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B425" s="7"/>
       <c r="C425" s="7"/>
     </row>
-    <row r="426">
+    <row r="426" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B426" s="7"/>
       <c r="C426" s="7"/>
     </row>
-    <row r="427">
+    <row r="427" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B427" s="7"/>
       <c r="C427" s="7"/>
     </row>
-    <row r="428">
+    <row r="428" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B428" s="7"/>
       <c r="C428" s="7"/>
     </row>
-    <row r="429">
+    <row r="429" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B429" s="7"/>
       <c r="C429" s="7"/>
     </row>
-    <row r="430">
+    <row r="430" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B430" s="7"/>
       <c r="C430" s="7"/>
     </row>
-    <row r="431">
+    <row r="431" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B431" s="7"/>
       <c r="C431" s="7"/>
     </row>
-    <row r="432">
+    <row r="432" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B432" s="7"/>
       <c r="C432" s="7"/>
     </row>
-    <row r="433">
+    <row r="433" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B433" s="7"/>
       <c r="C433" s="7"/>
     </row>
-    <row r="434">
+    <row r="434" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B434" s="7"/>
       <c r="C434" s="7"/>
     </row>
-    <row r="435">
+    <row r="435" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B435" s="7"/>
       <c r="C435" s="7"/>
     </row>
-    <row r="436">
+    <row r="436" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B436" s="7"/>
       <c r="C436" s="7"/>
     </row>
-    <row r="437">
+    <row r="437" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B437" s="7"/>
       <c r="C437" s="7"/>
     </row>
-    <row r="438">
+    <row r="438" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B438" s="7"/>
       <c r="C438" s="7"/>
     </row>
-    <row r="439">
+    <row r="439" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B439" s="7"/>
       <c r="C439" s="7"/>
     </row>
-    <row r="440">
+    <row r="440" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B440" s="7"/>
       <c r="C440" s="7"/>
     </row>
-    <row r="441">
+    <row r="441" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B441" s="7"/>
       <c r="C441" s="7"/>
     </row>
-    <row r="442">
+    <row r="442" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B442" s="7"/>
       <c r="C442" s="7"/>
     </row>
-    <row r="443">
+    <row r="443" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B443" s="7"/>
       <c r="C443" s="7"/>
     </row>
-    <row r="444">
+    <row r="444" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B444" s="7"/>
       <c r="C444" s="7"/>
     </row>
-    <row r="445">
+    <row r="445" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B445" s="7"/>
       <c r="C445" s="7"/>
     </row>
-    <row r="446">
+    <row r="446" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B446" s="7"/>
       <c r="C446" s="7"/>
     </row>
-    <row r="447">
+    <row r="447" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B447" s="7"/>
       <c r="C447" s="7"/>
     </row>
-    <row r="448">
+    <row r="448" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B448" s="7"/>
       <c r="C448" s="7"/>
     </row>
-    <row r="449">
+    <row r="449" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B449" s="7"/>
       <c r="C449" s="7"/>
     </row>
-    <row r="450">
+    <row r="450" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B450" s="7"/>
       <c r="C450" s="7"/>
     </row>
-    <row r="451">
+    <row r="451" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B451" s="7"/>
       <c r="C451" s="7"/>
     </row>
-    <row r="452">
+    <row r="452" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B452" s="7"/>
       <c r="C452" s="7"/>
     </row>
-    <row r="453">
+    <row r="453" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B453" s="7"/>
       <c r="C453" s="7"/>
     </row>
-    <row r="454">
+    <row r="454" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B454" s="7"/>
       <c r="C454" s="7"/>
     </row>
-    <row r="455">
+    <row r="455" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B455" s="7"/>
       <c r="C455" s="7"/>
     </row>
-    <row r="456">
+    <row r="456" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B456" s="7"/>
       <c r="C456" s="7"/>
     </row>
-    <row r="457">
+    <row r="457" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B457" s="7"/>
       <c r="C457" s="7"/>
     </row>
-    <row r="458">
+    <row r="458" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B458" s="7"/>
       <c r="C458" s="7"/>
     </row>
-    <row r="459">
+    <row r="459" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B459" s="7"/>
       <c r="C459" s="7"/>
     </row>
-    <row r="460">
+    <row r="460" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B460" s="7"/>
       <c r="C460" s="7"/>
     </row>
-    <row r="461">
+    <row r="461" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B461" s="7"/>
       <c r="C461" s="7"/>
     </row>
-    <row r="462">
+    <row r="462" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B462" s="7"/>
       <c r="C462" s="7"/>
     </row>
-    <row r="463">
+    <row r="463" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B463" s="7"/>
       <c r="C463" s="7"/>
     </row>
-    <row r="464">
+    <row r="464" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B464" s="7"/>
       <c r="C464" s="7"/>
     </row>
-    <row r="465">
+    <row r="465" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B465" s="7"/>
       <c r="C465" s="7"/>
     </row>
-    <row r="466">
+    <row r="466" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B466" s="7"/>
       <c r="C466" s="7"/>
     </row>
-    <row r="467">
+    <row r="467" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B467" s="7"/>
       <c r="C467" s="7"/>
     </row>
-    <row r="468">
+    <row r="468" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B468" s="7"/>
       <c r="C468" s="7"/>
     </row>
-    <row r="469">
+    <row r="469" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B469" s="7"/>
       <c r="C469" s="7"/>
     </row>
-    <row r="470">
+    <row r="470" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B470" s="7"/>
       <c r="C470" s="7"/>
     </row>
-    <row r="471">
+    <row r="471" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B471" s="7"/>
       <c r="C471" s="7"/>
     </row>
-    <row r="472">
+    <row r="472" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B472" s="7"/>
       <c r="C472" s="7"/>
     </row>
-    <row r="473">
+    <row r="473" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B473" s="7"/>
       <c r="C473" s="7"/>
     </row>
-    <row r="474">
+    <row r="474" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B474" s="7"/>
       <c r="C474" s="7"/>
     </row>
-    <row r="475">
+    <row r="475" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B475" s="7"/>
       <c r="C475" s="7"/>
     </row>
-    <row r="476">
+    <row r="476" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B476" s="7"/>
       <c r="C476" s="7"/>
     </row>
-    <row r="477">
+    <row r="477" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B477" s="7"/>
       <c r="C477" s="7"/>
     </row>
-    <row r="478">
+    <row r="478" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B478" s="7"/>
       <c r="C478" s="7"/>
     </row>
-    <row r="479">
+    <row r="479" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B479" s="7"/>
       <c r="C479" s="7"/>
     </row>
-    <row r="480">
+    <row r="480" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B480" s="7"/>
       <c r="C480" s="7"/>
     </row>
-    <row r="481">
+    <row r="481" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B481" s="7"/>
       <c r="C481" s="7"/>
     </row>
-    <row r="482">
+    <row r="482" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B482" s="7"/>
       <c r="C482" s="7"/>
     </row>
-    <row r="483">
+    <row r="483" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B483" s="7"/>
       <c r="C483" s="7"/>
     </row>
-    <row r="484">
+    <row r="484" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B484" s="7"/>
       <c r="C484" s="7"/>
     </row>
-    <row r="485">
+    <row r="485" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B485" s="7"/>
       <c r="C485" s="7"/>
     </row>
-    <row r="486">
+    <row r="486" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B486" s="7"/>
       <c r="C486" s="7"/>
     </row>
-    <row r="487">
+    <row r="487" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B487" s="7"/>
       <c r="C487" s="7"/>
     </row>
-    <row r="488">
+    <row r="488" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B488" s="7"/>
       <c r="C488" s="7"/>
     </row>
-    <row r="489">
+    <row r="489" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B489" s="7"/>
       <c r="C489" s="7"/>
     </row>
-    <row r="490">
+    <row r="490" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B490" s="7"/>
       <c r="C490" s="7"/>
     </row>
-    <row r="491">
+    <row r="491" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B491" s="7"/>
       <c r="C491" s="7"/>
     </row>
-    <row r="492">
+    <row r="492" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B492" s="7"/>
       <c r="C492" s="7"/>
     </row>
-    <row r="493">
+    <row r="493" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B493" s="7"/>
       <c r="C493" s="7"/>
     </row>
-    <row r="494">
+    <row r="494" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B494" s="7"/>
       <c r="C494" s="7"/>
     </row>
-    <row r="495">
+    <row r="495" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B495" s="7"/>
       <c r="C495" s="7"/>
     </row>
-    <row r="496">
+    <row r="496" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B496" s="7"/>
       <c r="C496" s="7"/>
     </row>
-    <row r="497">
+    <row r="497" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B497" s="7"/>
       <c r="C497" s="7"/>
     </row>
-    <row r="498">
+    <row r="498" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B498" s="7"/>
       <c r="C498" s="7"/>
     </row>
-    <row r="499">
+    <row r="499" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B499" s="7"/>
       <c r="C499" s="7"/>
     </row>
-    <row r="500">
+    <row r="500" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B500" s="7"/>
       <c r="C500" s="7"/>
     </row>
-    <row r="501">
+    <row r="501" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B501" s="7"/>
       <c r="C501" s="7"/>
     </row>
-    <row r="502">
+    <row r="502" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B502" s="7"/>
       <c r="C502" s="7"/>
     </row>
-    <row r="503">
+    <row r="503" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B503" s="7"/>
       <c r="C503" s="7"/>
     </row>
-    <row r="504">
+    <row r="504" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B504" s="7"/>
       <c r="C504" s="7"/>
     </row>
-    <row r="505">
+    <row r="505" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B505" s="7"/>
       <c r="C505" s="7"/>
     </row>
-    <row r="506">
+    <row r="506" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B506" s="7"/>
       <c r="C506" s="7"/>
     </row>
-    <row r="507">
+    <row r="507" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B507" s="7"/>
       <c r="C507" s="7"/>
     </row>
-    <row r="508">
+    <row r="508" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B508" s="7"/>
       <c r="C508" s="7"/>
     </row>
-    <row r="509">
+    <row r="509" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B509" s="7"/>
       <c r="C509" s="7"/>
     </row>
-    <row r="510">
+    <row r="510" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B510" s="7"/>
       <c r="C510" s="7"/>
     </row>
-    <row r="511">
+    <row r="511" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B511" s="7"/>
       <c r="C511" s="7"/>
     </row>
-    <row r="512">
+    <row r="512" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B512" s="7"/>
       <c r="C512" s="7"/>
     </row>
-    <row r="513">
+    <row r="513" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B513" s="7"/>
       <c r="C513" s="7"/>
     </row>
-    <row r="514">
+    <row r="514" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B514" s="7"/>
       <c r="C514" s="7"/>
     </row>
-    <row r="515">
+    <row r="515" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B515" s="7"/>
       <c r="C515" s="7"/>
     </row>
-    <row r="516">
+    <row r="516" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B516" s="7"/>
       <c r="C516" s="7"/>
     </row>
-    <row r="517">
+    <row r="517" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B517" s="7"/>
       <c r="C517" s="7"/>
     </row>
-    <row r="518">
+    <row r="518" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B518" s="7"/>
       <c r="C518" s="7"/>
     </row>
-    <row r="519">
+    <row r="519" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B519" s="7"/>
       <c r="C519" s="7"/>
     </row>
-    <row r="520">
+    <row r="520" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B520" s="7"/>
       <c r="C520" s="7"/>
     </row>
-    <row r="521">
+    <row r="521" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B521" s="7"/>
       <c r="C521" s="7"/>
     </row>
-    <row r="522">
+    <row r="522" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B522" s="7"/>
       <c r="C522" s="7"/>
     </row>
-    <row r="523">
+    <row r="523" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B523" s="7"/>
       <c r="C523" s="7"/>
     </row>
-    <row r="524">
+    <row r="524" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B524" s="7"/>
       <c r="C524" s="7"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/csdata/Fe/SI/Fe11+.xlsx
+++ b/csdata/Fe/SI/Fe11+.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gmondeel/Documents/CfA/Chandra/CHANDRA-Rates/csdata/Fe/SI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E91218C-172E-7D40-BAEE-69FF040E4366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A87345E-280C-8346-BCC1-B757722B1152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -128,6 +128,7 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -349,7 +350,7 @@
   <dimension ref="A1:Z524"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -381,8 +382,8 @@
       <c r="B2" s="4">
         <v>3.6899999999999997E-20</v>
       </c>
-      <c r="C2" s="4">
-        <v>2.7299999999999997E-20</v>
+      <c r="C2" s="9">
+        <v>2.7699999999999999E-20</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
@@ -392,7 +393,7 @@
       </c>
       <c r="F2">
         <f>_xlfn.XLOOKUP(MAX(B:B),B:B,C:C)/MAX(B:B)</f>
-        <v>2.8571428571428571E-3</v>
+        <v>0.12750885478158205</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -422,8 +423,8 @@
       <c r="B3" s="4">
         <v>2.4400000000000001E-20</v>
       </c>
-      <c r="C3" s="4">
-        <v>2.02E-20</v>
+      <c r="C3" s="9">
+        <v>2.04E-20</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -456,8 +457,8 @@
       <c r="B4" s="4">
         <v>4.46E-20</v>
       </c>
-      <c r="C4" s="4">
-        <v>1.9099999999999999E-20</v>
+      <c r="C4" s="9">
+        <v>1.9899999999999999E-20</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -490,7 +491,7 @@
       <c r="B5" s="4">
         <v>-2.2300000000000001E-21</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="9">
         <v>1.9099999999999999E-20</v>
       </c>
       <c r="D5" s="2"/>
@@ -524,8 +525,8 @@
       <c r="B6" s="4">
         <v>-2.3899999999999999E-20</v>
       </c>
-      <c r="C6" s="4">
-        <v>1.9700000000000001E-20</v>
+      <c r="C6" s="9">
+        <v>1.9899999999999999E-20</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -558,8 +559,8 @@
       <c r="B7" s="4">
         <v>1.9600000000000001E-20</v>
       </c>
-      <c r="C7" s="4">
-        <v>1.9099999999999999E-20</v>
+      <c r="C7" s="9">
+        <v>1.93E-20</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="2"/>
@@ -592,7 +593,7 @@
       <c r="B8" s="4">
         <v>4.4000000000000001E-21</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="9">
         <v>1.95E-20</v>
       </c>
       <c r="D8" s="5"/>
@@ -626,8 +627,8 @@
       <c r="B9" s="4">
         <v>2.8000000000000003E-20</v>
       </c>
-      <c r="C9" s="4">
-        <v>1.9700000000000001E-20</v>
+      <c r="C9" s="9">
+        <v>1.9999999999999999E-20</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -660,8 +661,8 @@
       <c r="B10" s="4">
         <v>-2.22E-20</v>
       </c>
-      <c r="C10" s="4">
-        <v>1.9700000000000001E-20</v>
+      <c r="C10" s="9">
+        <v>1.9899999999999999E-20</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="2"/>
@@ -694,8 +695,8 @@
       <c r="B11" s="4">
         <v>-1.2899999999999999E-20</v>
       </c>
-      <c r="C11" s="4">
-        <v>1.8099999999999999E-20</v>
+      <c r="C11" s="9">
+        <v>1.8199999999999999E-20</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="5"/>
@@ -728,8 +729,8 @@
       <c r="B12" s="4">
         <v>-1.8800000000000001E-20</v>
       </c>
-      <c r="C12" s="4">
-        <v>1.3E-20</v>
+      <c r="C12" s="9">
+        <v>1.32E-20</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="5"/>
@@ -762,8 +763,8 @@
       <c r="B13" s="4">
         <v>-9.4099999999999997E-21</v>
       </c>
-      <c r="C13" s="4">
-        <v>1.35E-20</v>
+      <c r="C13" s="9">
+        <v>1.36E-20</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="5"/>
@@ -796,7 +797,7 @@
       <c r="B14" s="4">
         <v>-6.3500000000000002E-21</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="9">
         <v>1.32E-20</v>
       </c>
       <c r="D14" s="2"/>
@@ -830,8 +831,8 @@
       <c r="B15" s="4">
         <v>1.12E-20</v>
       </c>
-      <c r="C15" s="4">
-        <v>1.3300000000000001E-20</v>
+      <c r="C15" s="9">
+        <v>1.3399999999999999E-20</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="5"/>
@@ -864,8 +865,8 @@
       <c r="B16" s="4">
         <v>-1.76E-20</v>
       </c>
-      <c r="C16" s="4">
-        <v>1.32E-20</v>
+      <c r="C16" s="9">
+        <v>1.3399999999999999E-20</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="5"/>
@@ -898,8 +899,8 @@
       <c r="B17" s="4">
         <v>2.13E-20</v>
       </c>
-      <c r="C17" s="4">
-        <v>1.3900000000000001E-20</v>
+      <c r="C17" s="9">
+        <v>1.4199999999999999E-20</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="5"/>
@@ -932,8 +933,8 @@
       <c r="B18" s="4">
         <v>4.2399999999999999E-20</v>
       </c>
-      <c r="C18" s="4">
-        <v>1.3300000000000001E-20</v>
+      <c r="C18" s="9">
+        <v>1.44E-20</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -966,8 +967,8 @@
       <c r="B19" s="4">
         <v>7.0199999999999995E-20</v>
       </c>
-      <c r="C19" s="4">
-        <v>1.4000000000000001E-20</v>
+      <c r="C19" s="9">
+        <v>1.66E-20</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -1000,8 +1001,8 @@
       <c r="B20" s="4">
         <v>1.13E-19</v>
       </c>
-      <c r="C20" s="4">
-        <v>1.36E-20</v>
+      <c r="C20" s="9">
+        <v>1.9800000000000001E-20</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -1034,8 +1035,8 @@
       <c r="B21" s="4">
         <v>1.4900000000000001E-19</v>
       </c>
-      <c r="C21" s="4">
-        <v>1.2800000000000001E-20</v>
+      <c r="C21" s="9">
+        <v>2.2899999999999999E-20</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -1068,8 +1069,8 @@
       <c r="B22" s="4">
         <v>1.82E-19</v>
       </c>
-      <c r="C22" s="4">
-        <v>1.1399999999999999E-20</v>
+      <c r="C22" s="9">
+        <v>2.5799999999999999E-20</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -1102,8 +1103,8 @@
       <c r="B23" s="4">
         <v>1.93E-19</v>
       </c>
-      <c r="C23" s="4">
-        <v>1.16E-20</v>
+      <c r="C23" s="9">
+        <v>2.72E-20</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1136,8 +1137,8 @@
       <c r="B24" s="4">
         <v>2.1299999999999999E-19</v>
       </c>
-      <c r="C24" s="4">
-        <v>1.17E-20</v>
+      <c r="C24" s="9">
+        <v>2.9499999999999998E-20</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -1170,8 +1171,8 @@
       <c r="B25" s="4">
         <v>2.1500000000000001E-19</v>
       </c>
-      <c r="C25" s="4">
-        <v>1.17E-20</v>
+      <c r="C25" s="9">
+        <v>2.9800000000000002E-20</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -1204,8 +1205,8 @@
       <c r="B26" s="4">
         <v>2.5300000000000002E-19</v>
       </c>
-      <c r="C26" s="4">
-        <v>1.17E-20</v>
+      <c r="C26" s="9">
+        <v>3.4300000000000001E-20</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -1238,8 +1239,8 @@
       <c r="B27" s="4">
         <v>2.5599999999999998E-19</v>
       </c>
-      <c r="C27" s="4">
-        <v>1.15E-20</v>
+      <c r="C27" s="9">
+        <v>3.4599999999999999E-20</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="5"/>
@@ -1272,8 +1273,8 @@
       <c r="B28" s="4">
         <v>2.7000000000000001E-19</v>
       </c>
-      <c r="C28" s="4">
-        <v>1.1800000000000001E-20</v>
+      <c r="C28" s="9">
+        <v>3.6300000000000001E-20</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1306,8 +1307,8 @@
       <c r="B29" s="4">
         <v>2.9500000000000002E-19</v>
       </c>
-      <c r="C29" s="4">
-        <v>1.1899999999999999E-20</v>
+      <c r="C29" s="9">
+        <v>3.9400000000000002E-20</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -1340,8 +1341,8 @@
       <c r="B30" s="4">
         <v>3.0200000000000001E-19</v>
       </c>
-      <c r="C30" s="4">
-        <v>1.22E-20</v>
+      <c r="C30" s="9">
+        <v>4.0300000000000002E-20</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1374,8 +1375,8 @@
       <c r="B31" s="4">
         <v>2.9800000000000002E-19</v>
       </c>
-      <c r="C31" s="4">
-        <v>1.21E-20</v>
+      <c r="C31" s="9">
+        <v>3.9799999999999997E-20</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -1408,8 +1409,8 @@
       <c r="B32" s="4">
         <v>3.5300000000000002E-19</v>
       </c>
-      <c r="C32" s="4">
-        <v>1.01E-20</v>
+      <c r="C32" s="9">
+        <v>4.6100000000000002E-20</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -1442,8 +1443,8 @@
       <c r="B33" s="4">
         <v>3.5600000000000002E-19</v>
       </c>
-      <c r="C33" s="4">
-        <v>9.8200000000000001E-21</v>
+      <c r="C33" s="9">
+        <v>4.64E-20</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -1476,8 +1477,8 @@
       <c r="B34" s="4">
         <v>3.6600000000000002E-19</v>
       </c>
-      <c r="C34" s="4">
-        <v>1.03E-20</v>
+      <c r="C34" s="9">
+        <v>4.7700000000000001E-20</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -1510,8 +1511,8 @@
       <c r="B35" s="4">
         <v>3.7799999999999998E-19</v>
       </c>
-      <c r="C35" s="4">
-        <v>1.01E-20</v>
+      <c r="C35" s="9">
+        <v>4.9200000000000002E-20</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -1544,8 +1545,8 @@
       <c r="B36" s="4">
         <v>3.8E-19</v>
       </c>
-      <c r="C36" s="4">
-        <v>1.0499999999999999E-20</v>
+      <c r="C36" s="9">
+        <v>4.95E-20</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -1578,8 +1579,8 @@
       <c r="B37" s="4">
         <v>3.8699999999999999E-19</v>
       </c>
-      <c r="C37" s="4">
-        <v>9.9999999999999995E-21</v>
+      <c r="C37" s="9">
+        <v>5.0300000000000003E-20</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -1612,8 +1613,8 @@
       <c r="B38" s="4">
         <v>3.9900000000000001E-19</v>
       </c>
-      <c r="C38" s="4">
-        <v>1.06E-20</v>
+      <c r="C38" s="9">
+        <v>5.1900000000000002E-20</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -1646,8 +1647,8 @@
       <c r="B39" s="4">
         <v>4.1100000000000002E-19</v>
       </c>
-      <c r="C39" s="4">
-        <v>1.0400000000000001E-20</v>
+      <c r="C39" s="9">
+        <v>5.33E-20</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -1680,8 +1681,8 @@
       <c r="B40" s="4">
         <v>4.1999999999999998E-19</v>
       </c>
-      <c r="C40" s="4">
-        <v>1.06E-20</v>
+      <c r="C40" s="9">
+        <v>5.4500000000000004E-20</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -1714,8 +1715,8 @@
       <c r="B41" s="4">
         <v>4.0999999999999999E-19</v>
       </c>
-      <c r="C41" s="4">
-        <v>1.03E-20</v>
+      <c r="C41" s="9">
+        <v>5.3200000000000003E-20</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -1748,8 +1749,8 @@
       <c r="B42" s="4">
         <v>4.1999999999999998E-19</v>
       </c>
-      <c r="C42" s="4">
-        <v>1.13E-20</v>
+      <c r="C42" s="9">
+        <v>5.4599999999999995E-20</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -1782,8 +1783,8 @@
       <c r="B43" s="4">
         <v>4.3100000000000001E-19</v>
       </c>
-      <c r="C43" s="4">
-        <v>1.1E-20</v>
+      <c r="C43" s="9">
+        <v>5.5900000000000002E-20</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -1816,8 +1817,8 @@
       <c r="B44" s="4">
         <v>4.28E-19</v>
       </c>
-      <c r="C44" s="4">
-        <v>1.13E-20</v>
+      <c r="C44" s="9">
+        <v>5.5600000000000004E-20</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -1850,8 +1851,8 @@
       <c r="B45" s="4">
         <v>4.5900000000000002E-19</v>
       </c>
-      <c r="C45" s="4">
-        <v>1.1899999999999999E-20</v>
+      <c r="C45" s="9">
+        <v>5.9600000000000004E-20</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -1884,8 +1885,8 @@
       <c r="B46" s="4">
         <v>4.5499999999999999E-19</v>
       </c>
-      <c r="C46" s="4">
-        <v>1.1399999999999999E-20</v>
+      <c r="C46" s="9">
+        <v>5.8999999999999997E-20</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -1918,8 +1919,8 @@
       <c r="B47" s="4">
         <v>4.7900000000000001E-19</v>
       </c>
-      <c r="C47" s="4">
-        <v>1.16E-20</v>
+      <c r="C47" s="9">
+        <v>6.2100000000000003E-20</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -1952,8 +1953,8 @@
       <c r="B48" s="4">
         <v>4.8399999999999999E-19</v>
       </c>
-      <c r="C48" s="4">
-        <v>1.17E-20</v>
+      <c r="C48" s="9">
+        <v>6.2699999999999999E-20</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -1986,8 +1987,8 @@
       <c r="B49" s="4">
         <v>4.7900000000000001E-19</v>
       </c>
-      <c r="C49" s="4">
-        <v>1.15E-20</v>
+      <c r="C49" s="9">
+        <v>6.2E-20</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -2020,8 +2021,8 @@
       <c r="B50" s="4">
         <v>4.96E-19</v>
       </c>
-      <c r="C50" s="4">
-        <v>1.17E-20</v>
+      <c r="C50" s="9">
+        <v>6.4200000000000001E-20</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -2054,8 +2055,8 @@
       <c r="B51" s="4">
         <v>4.8399999999999999E-19</v>
       </c>
-      <c r="C51" s="4">
-        <v>1.1800000000000001E-20</v>
+      <c r="C51" s="9">
+        <v>6.2699999999999999E-20</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -2088,8 +2089,8 @@
       <c r="B52" s="4">
         <v>5.0399999999999998E-19</v>
       </c>
-      <c r="C52" s="4">
-        <v>1.1800000000000001E-20</v>
+      <c r="C52" s="9">
+        <v>6.5199999999999998E-20</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -2122,8 +2123,8 @@
       <c r="B53" s="4">
         <v>5.1499999999999996E-19</v>
       </c>
-      <c r="C53" s="4">
-        <v>1.22E-20</v>
+      <c r="C53" s="9">
+        <v>6.6699999999999999E-20</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -2156,8 +2157,8 @@
       <c r="B54" s="4">
         <v>5.25E-19</v>
       </c>
-      <c r="C54" s="4">
-        <v>1.7900000000000001E-20</v>
+      <c r="C54" s="9">
+        <v>6.9199999999999998E-20</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -2190,8 +2191,8 @@
       <c r="B55" s="4">
         <v>5.51E-19</v>
       </c>
-      <c r="C55" s="4">
-        <v>1.75E-20</v>
+      <c r="C55" s="9">
+        <v>7.2300000000000005E-20</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -2224,8 +2225,8 @@
       <c r="B56" s="4">
         <v>5.1199999999999995E-19</v>
       </c>
-      <c r="C56" s="4">
-        <v>1.84E-20</v>
+      <c r="C56" s="9">
+        <v>6.7699999999999997E-20</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -2258,8 +2259,8 @@
       <c r="B57" s="4">
         <v>5.4699999999999996E-19</v>
       </c>
-      <c r="C57" s="4">
-        <v>1.6299999999999999E-20</v>
+      <c r="C57" s="9">
+        <v>7.1500000000000002E-20</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -2292,8 +2293,8 @@
       <c r="B58" s="4">
         <v>4.8699999999999999E-19</v>
       </c>
-      <c r="C58" s="4">
-        <v>1.76E-20</v>
+      <c r="C58" s="9">
+        <v>6.4399999999999995E-20</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -2326,8 +2327,8 @@
       <c r="B59" s="4">
         <v>5.5500000000000003E-19</v>
       </c>
-      <c r="C59" s="4">
-        <v>1.7800000000000001E-20</v>
+      <c r="C59" s="9">
+        <v>7.2799999999999997E-20</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -2360,8 +2361,8 @@
       <c r="B60" s="4">
         <v>5.0000000000000004E-19</v>
       </c>
-      <c r="C60" s="4">
-        <v>1.7099999999999999E-20</v>
+      <c r="C60" s="9">
+        <v>6.5899999999999997E-20</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -2394,8 +2395,8 @@
       <c r="B61" s="4">
         <v>5.2000000000000003E-19</v>
       </c>
-      <c r="C61" s="4">
-        <v>1.6700000000000001E-20</v>
+      <c r="C61" s="9">
+        <v>6.8300000000000004E-20</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -2428,8 +2429,8 @@
       <c r="B62" s="4">
         <v>5.4999999999999996E-19</v>
       </c>
-      <c r="C62" s="4">
-        <v>1.7700000000000001E-20</v>
+      <c r="C62" s="9">
+        <v>7.2200000000000001E-20</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -2462,8 +2463,8 @@
       <c r="B63" s="4">
         <v>5.3400000000000001E-19</v>
       </c>
-      <c r="C63" s="4">
-        <v>1.6800000000000001E-20</v>
+      <c r="C63" s="9">
+        <v>7.0000000000000001E-20</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -2496,8 +2497,8 @@
       <c r="B64" s="4">
         <v>5.5599999999999997E-19</v>
       </c>
-      <c r="C64" s="4">
-        <v>9.1800000000000002E-21</v>
+      <c r="C64" s="9">
+        <v>7.1399999999999999E-20</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -2530,8 +2531,8 @@
       <c r="B65" s="4">
         <v>5.5899999999999997E-19</v>
       </c>
-      <c r="C65" s="4">
-        <v>8.5999999999999996E-21</v>
+      <c r="C65" s="9">
+        <v>7.1699999999999997E-20</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -2564,8 +2565,8 @@
       <c r="B66" s="4">
         <v>5.6400000000000004E-19</v>
       </c>
-      <c r="C66" s="4">
-        <v>8.3700000000000001E-21</v>
+      <c r="C66" s="9">
+        <v>7.2300000000000005E-20</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -2598,8 +2599,8 @@
       <c r="B67" s="4">
         <v>5.5899999999999997E-19</v>
       </c>
-      <c r="C67" s="4">
-        <v>8.82E-21</v>
+      <c r="C67" s="9">
+        <v>7.1699999999999997E-20</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -2632,8 +2633,8 @@
       <c r="B68" s="4">
         <v>5.6400000000000004E-19</v>
       </c>
-      <c r="C68" s="4">
-        <v>8.82E-21</v>
+      <c r="C68" s="9">
+        <v>7.2300000000000005E-20</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -2666,8 +2667,8 @@
       <c r="B69" s="4">
         <v>5.6100000000000004E-19</v>
       </c>
-      <c r="C69" s="4">
-        <v>8.4099999999999996E-21</v>
+      <c r="C69" s="9">
+        <v>7.1900000000000004E-20</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -2700,8 +2701,8 @@
       <c r="B70" s="4">
         <v>5.6499999999999998E-19</v>
       </c>
-      <c r="C70" s="4">
-        <v>8.7500000000000001E-21</v>
+      <c r="C70" s="9">
+        <v>7.2399999999999996E-20</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -2734,8 +2735,8 @@
       <c r="B71" s="4">
         <v>5.7599999999999996E-19</v>
       </c>
-      <c r="C71" s="4">
-        <v>8.8399999999999998E-21</v>
+      <c r="C71" s="9">
+        <v>7.3799999999999994E-20</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -2768,8 +2769,8 @@
       <c r="B72" s="4">
         <v>5.6600000000000001E-19</v>
       </c>
-      <c r="C72" s="4">
-        <v>7.4299999999999993E-21</v>
+      <c r="C72" s="9">
+        <v>7.2399999999999996E-20</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -2802,8 +2803,8 @@
       <c r="B73" s="4">
         <v>5.7299999999999996E-19</v>
       </c>
-      <c r="C73" s="4">
-        <v>8.9700000000000005E-21</v>
+      <c r="C73" s="9">
+        <v>7.3499999999999996E-20</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -2836,8 +2837,8 @@
       <c r="B74" s="4">
         <v>5.7899999999999996E-19</v>
       </c>
-      <c r="C74" s="4">
-        <v>8.9400000000000001E-21</v>
+      <c r="C74" s="9">
+        <v>7.4199999999999996E-20</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -2870,8 +2871,8 @@
       <c r="B75" s="4">
         <v>5.8100000000000003E-19</v>
       </c>
-      <c r="C75" s="4">
-        <v>9.0299999999999997E-21</v>
+      <c r="C75" s="9">
+        <v>7.4500000000000006E-20</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -2904,8 +2905,8 @@
       <c r="B76" s="4">
         <v>5.6499999999999998E-19</v>
       </c>
-      <c r="C76" s="4">
-        <v>6.2100000000000003E-21</v>
+      <c r="C76" s="9">
+        <v>7.2200000000000001E-20</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -2938,8 +2939,8 @@
       <c r="B77" s="4">
         <v>5.6900000000000002E-19</v>
       </c>
-      <c r="C77" s="4">
-        <v>5.6299999999999997E-21</v>
+      <c r="C77" s="9">
+        <v>7.2600000000000003E-20</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -2972,8 +2973,8 @@
       <c r="B78" s="4">
         <v>5.8700000000000004E-19</v>
       </c>
-      <c r="C78" s="4">
-        <v>6.11E-21</v>
+      <c r="C78" s="9">
+        <v>7.4999999999999998E-20</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -3006,8 +3007,8 @@
       <c r="B79" s="4">
         <v>5.8900000000000001E-19</v>
       </c>
-      <c r="C79" s="4">
-        <v>5.7200000000000002E-21</v>
+      <c r="C79" s="9">
+        <v>7.5200000000000005E-20</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -3040,8 +3041,8 @@
       <c r="B80" s="4">
         <v>5.9899999999999995E-19</v>
       </c>
-      <c r="C80" s="4">
-        <v>5.9100000000000001E-21</v>
+      <c r="C80" s="9">
+        <v>7.65E-20</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -3074,8 +3075,8 @@
       <c r="B81" s="4">
         <v>5.9500000000000001E-19</v>
       </c>
-      <c r="C81" s="4">
-        <v>5.9600000000000003E-21</v>
+      <c r="C81" s="9">
+        <v>7.5999999999999995E-20</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -3108,8 +3109,8 @@
       <c r="B82" s="4">
         <v>5.8700000000000004E-19</v>
       </c>
-      <c r="C82" s="4">
-        <v>3.65E-21</v>
+      <c r="C82" s="9">
+        <v>7.4800000000000004E-20</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -3142,8 +3143,8 @@
       <c r="B83" s="4">
         <v>5.8E-19</v>
       </c>
-      <c r="C83" s="4">
-        <v>3.0599999999999999E-21</v>
+      <c r="C83" s="9">
+        <v>7.3899999999999998E-20</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -3176,8 +3177,8 @@
       <c r="B84" s="4">
         <v>5.86E-19</v>
       </c>
-      <c r="C84" s="4">
-        <v>3.2000000000000002E-21</v>
+      <c r="C84" s="9">
+        <v>7.47E-20</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -3210,8 +3211,8 @@
       <c r="B85" s="4">
         <v>5.83E-19</v>
       </c>
-      <c r="C85" s="4">
-        <v>2.7000000000000001E-21</v>
+      <c r="C85" s="9">
+        <v>7.4299999999999999E-20</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -3244,8 +3245,8 @@
       <c r="B86" s="4">
         <v>5.8799999999999997E-19</v>
       </c>
-      <c r="C86" s="4">
-        <v>2.4200000000000001E-21</v>
+      <c r="C86" s="9">
+        <v>7.4899999999999995E-20</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -3278,8 +3279,8 @@
       <c r="B87" s="4">
         <v>5.8799999999999997E-19</v>
       </c>
-      <c r="C87" s="4">
-        <v>2.5899999999999999E-21</v>
+      <c r="C87" s="9">
+        <v>7.4899999999999995E-20</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -3312,8 +3313,8 @@
       <c r="B88" s="4">
         <v>5.8900000000000001E-19</v>
       </c>
-      <c r="C88" s="4">
-        <v>2.5299999999999999E-21</v>
+      <c r="C88" s="9">
+        <v>7.4999999999999998E-20</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -3346,8 +3347,8 @@
       <c r="B89" s="4">
         <v>6.1099999999999997E-19</v>
       </c>
-      <c r="C89" s="4">
-        <v>2.2099999999999999E-21</v>
+      <c r="C89" s="9">
+        <v>7.7799999999999995E-20</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -3380,8 +3381,8 @@
       <c r="B90" s="4">
         <v>6.3000000000000002E-19</v>
       </c>
-      <c r="C90" s="4">
-        <v>2.3500000000000001E-21</v>
+      <c r="C90" s="9">
+        <v>8.0200000000000002E-20</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -3414,8 +3415,8 @@
       <c r="B91" s="4">
         <v>6.3499999999999999E-19</v>
       </c>
-      <c r="C91" s="4">
-        <v>2.4299999999999999E-21</v>
+      <c r="C91" s="9">
+        <v>8.0900000000000001E-20</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -3448,8 +3449,8 @@
       <c r="B92" s="4">
         <v>6.3999999999999996E-19</v>
       </c>
-      <c r="C92" s="4">
-        <v>2.4399999999999998E-21</v>
+      <c r="C92" s="9">
+        <v>8.1499999999999997E-20</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -3482,8 +3483,8 @@
       <c r="B93" s="4">
         <v>6.5000000000000001E-19</v>
       </c>
-      <c r="C93" s="4">
-        <v>2.5100000000000001E-21</v>
+      <c r="C93" s="9">
+        <v>8.2800000000000004E-20</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -3516,8 +3517,8 @@
       <c r="B94" s="4">
         <v>6.7400000000000003E-19</v>
       </c>
-      <c r="C94" s="4">
-        <v>2.5599999999999999E-21</v>
+      <c r="C94" s="9">
+        <v>8.5799999999999996E-20</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -3550,8 +3551,8 @@
       <c r="B95" s="4">
         <v>6.99E-19</v>
       </c>
-      <c r="C95" s="4">
-        <v>2.3099999999999999E-21</v>
+      <c r="C95" s="9">
+        <v>8.9000000000000006E-20</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -3584,8 +3585,8 @@
       <c r="B96" s="4">
         <v>7.0600000000000004E-19</v>
       </c>
-      <c r="C96" s="4">
-        <v>2.4399999999999998E-21</v>
+      <c r="C96" s="9">
+        <v>8.9899999999999999E-20</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -3618,8 +3619,8 @@
       <c r="B97" s="4">
         <v>7.2499999999999999E-19</v>
       </c>
-      <c r="C97" s="4">
-        <v>2.49E-21</v>
+      <c r="C97" s="9">
+        <v>9.2299999999999995E-20</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -3652,8 +3653,8 @@
       <c r="B98" s="4">
         <v>7.3899999999999998E-19</v>
       </c>
-      <c r="C98" s="4">
-        <v>2.24E-21</v>
+      <c r="C98" s="9">
+        <v>9.4099999999999994E-20</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -3686,8 +3687,8 @@
       <c r="B99" s="4">
         <v>7.3599999999999997E-19</v>
       </c>
-      <c r="C99" s="4">
-        <v>2.3099999999999999E-21</v>
+      <c r="C99" s="9">
+        <v>9.3700000000000005E-20</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -3720,8 +3721,8 @@
       <c r="B100" s="4">
         <v>7.5399999999999999E-19</v>
       </c>
-      <c r="C100" s="4">
-        <v>2.4299999999999999E-21</v>
+      <c r="C100" s="9">
+        <v>9.5999999999999997E-20</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -3754,8 +3755,8 @@
       <c r="B101" s="4">
         <v>7.5599999999999996E-19</v>
       </c>
-      <c r="C101" s="4">
-        <v>2.3399999999999999E-21</v>
+      <c r="C101" s="9">
+        <v>9.6299999999999995E-20</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -3788,8 +3789,8 @@
       <c r="B102" s="4">
         <v>7.7099999999999998E-19</v>
       </c>
-      <c r="C102" s="4">
-        <v>2.33E-21</v>
+      <c r="C102" s="9">
+        <v>9.8199999999999998E-20</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -3822,8 +3823,8 @@
       <c r="B103" s="4">
         <v>7.89E-19</v>
       </c>
-      <c r="C103" s="4">
-        <v>2.3099999999999999E-21</v>
+      <c r="C103" s="9">
+        <v>9.9999999999999998E-20</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -3856,8 +3857,8 @@
       <c r="B104" s="4">
         <v>8.2400000000000001E-19</v>
       </c>
-      <c r="C104" s="4">
-        <v>2.17E-21</v>
+      <c r="C104" s="9">
+        <v>1.0499999999999999E-19</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -3890,8 +3891,8 @@
       <c r="B105" s="4">
         <v>8.1699999999999997E-19</v>
       </c>
-      <c r="C105" s="4">
-        <v>2.2000000000000001E-21</v>
+      <c r="C105" s="9">
+        <v>1.04E-19</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -3924,8 +3925,8 @@
       <c r="B106" s="4">
         <v>7.9600000000000004E-19</v>
       </c>
-      <c r="C106" s="4">
-        <v>2.24E-21</v>
+      <c r="C106" s="9">
+        <v>1.0099999999999999E-19</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -3958,8 +3959,8 @@
       <c r="B107" s="4">
         <v>8.0100000000000001E-19</v>
       </c>
-      <c r="C107" s="4">
-        <v>2.2199999999999998E-21</v>
+      <c r="C107" s="9">
+        <v>1.02E-19</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -3992,8 +3993,8 @@
       <c r="B108" s="4">
         <v>8.1000000000000002E-19</v>
       </c>
-      <c r="C108" s="4">
-        <v>2.2199999999999998E-21</v>
+      <c r="C108" s="9">
+        <v>1.03E-19</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -4026,8 +4027,8 @@
       <c r="B109" s="4">
         <v>7.9900000000000004E-19</v>
       </c>
-      <c r="C109" s="4">
-        <v>2.2799999999999999E-21</v>
+      <c r="C109" s="9">
+        <v>1.02E-19</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -4060,8 +4061,8 @@
       <c r="B110" s="4">
         <v>7.89E-19</v>
       </c>
-      <c r="C110" s="4">
-        <v>2.4200000000000001E-21</v>
+      <c r="C110" s="9">
+        <v>9.9999999999999998E-20</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -4094,8 +4095,8 @@
       <c r="B111" s="4">
         <v>7.92E-19</v>
       </c>
-      <c r="C111" s="4">
-        <v>2.17E-21</v>
+      <c r="C111" s="9">
+        <v>1.0099999999999999E-19</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -4128,8 +4129,8 @@
       <c r="B112" s="4">
         <v>7.9399999999999997E-19</v>
       </c>
-      <c r="C112" s="4">
-        <v>2.2600000000000001E-21</v>
+      <c r="C112" s="9">
+        <v>1.0099999999999999E-19</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -4162,8 +4163,8 @@
       <c r="B113" s="4">
         <v>8.0100000000000001E-19</v>
       </c>
-      <c r="C113" s="4">
-        <v>2.3800000000000002E-21</v>
+      <c r="C113" s="9">
+        <v>1.02E-19</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -4196,8 +4197,8 @@
       <c r="B114" s="4">
         <v>8.47E-19</v>
       </c>
-      <c r="C114" s="4">
-        <v>2.4200000000000001E-21</v>
+      <c r="C114" s="9">
+        <v>1.08E-19</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -4230,8 +4231,8 @@
       <c r="B115" s="4">
         <v>8.18E-19</v>
       </c>
-      <c r="C115" s="4">
-        <v>2.3800000000000002E-21</v>
+      <c r="C115" s="9">
+        <v>1.04E-19</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -4264,8 +4265,8 @@
       <c r="B116" s="4">
         <v>8.1099999999999996E-19</v>
       </c>
-      <c r="C116" s="4">
-        <v>2.1900000000000002E-21</v>
+      <c r="C116" s="9">
+        <v>1.03E-19</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -4298,8 +4299,8 @@
       <c r="B117" s="4">
         <v>7.9999999999999998E-19</v>
       </c>
-      <c r="C117" s="4">
-        <v>2.0700000000000001E-21</v>
+      <c r="C117" s="9">
+        <v>1.02E-19</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -4332,8 +4333,8 @@
       <c r="B118" s="4">
         <v>8.1699999999999997E-19</v>
       </c>
-      <c r="C118" s="4">
-        <v>2.0299999999999998E-21</v>
+      <c r="C118" s="9">
+        <v>1.04E-19</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -4366,8 +4367,8 @@
       <c r="B119" s="4">
         <v>8.3300000000000002E-19</v>
       </c>
-      <c r="C119" s="4">
-        <v>2.1799999999999999E-21</v>
+      <c r="C119" s="9">
+        <v>1.06E-19</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -4400,8 +4401,8 @@
       <c r="B120" s="4">
         <v>8.1399999999999996E-19</v>
       </c>
-      <c r="C120" s="4">
-        <v>2.1300000000000001E-21</v>
+      <c r="C120" s="9">
+        <v>1.04E-19</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -4434,8 +4435,8 @@
       <c r="B121" s="4">
         <v>8.1099999999999996E-19</v>
       </c>
-      <c r="C121" s="4">
-        <v>2.0400000000000001E-21</v>
+      <c r="C121" s="9">
+        <v>1.03E-19</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -4468,8 +4469,8 @@
       <c r="B122" s="4">
         <v>8.2899999999999998E-19</v>
       </c>
-      <c r="C122" s="4">
-        <v>2.1000000000000001E-21</v>
+      <c r="C122" s="9">
+        <v>1.06E-19</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -4502,8 +4503,8 @@
       <c r="B123" s="4">
         <v>8.0899999999999999E-19</v>
       </c>
-      <c r="C123" s="4">
-        <v>2.1900000000000002E-21</v>
+      <c r="C123" s="9">
+        <v>1.03E-19</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -4536,8 +4537,8 @@
       <c r="B124" s="4">
         <v>8.2299999999999997E-19</v>
       </c>
-      <c r="C124" s="4">
-        <v>1.9100000000000001E-21</v>
+      <c r="C124" s="9">
+        <v>1.0499999999999999E-19</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -4570,8 +4571,8 @@
       <c r="B125" s="4">
         <v>8.2200000000000004E-19</v>
       </c>
-      <c r="C125" s="4">
-        <v>1.9800000000000001E-21</v>
+      <c r="C125" s="9">
+        <v>1.0499999999999999E-19</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -4604,8 +4605,8 @@
       <c r="B126" s="4">
         <v>8.18E-19</v>
       </c>
-      <c r="C126" s="4">
-        <v>2.0899999999999999E-21</v>
+      <c r="C126" s="9">
+        <v>1.04E-19</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -4638,8 +4639,8 @@
       <c r="B127" s="4">
         <v>8.1900000000000003E-19</v>
       </c>
-      <c r="C127" s="4">
-        <v>1.7200000000000001E-21</v>
+      <c r="C127" s="9">
+        <v>1.04E-19</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -4672,8 +4673,8 @@
       <c r="B128" s="4">
         <v>8.1399999999999996E-19</v>
       </c>
-      <c r="C128" s="4">
-        <v>1.67E-21</v>
+      <c r="C128" s="9">
+        <v>1.04E-19</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -4706,8 +4707,8 @@
       <c r="B129" s="4">
         <v>8.1999999999999997E-19</v>
       </c>
-      <c r="C129" s="4">
-        <v>1.8399999999999998E-21</v>
+      <c r="C129" s="9">
+        <v>1.04E-19</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -4740,8 +4741,8 @@
       <c r="B130" s="4">
         <v>8.2899999999999998E-19</v>
       </c>
-      <c r="C130" s="4">
-        <v>1.8699999999999999E-21</v>
+      <c r="C130" s="9">
+        <v>1.06E-19</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -4774,8 +4775,8 @@
       <c r="B131" s="4">
         <v>8.2599999999999998E-19</v>
       </c>
-      <c r="C131" s="4">
-        <v>1.7399999999999999E-21</v>
+      <c r="C131" s="9">
+        <v>1.0499999999999999E-19</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -4808,8 +4809,8 @@
       <c r="B132" s="4">
         <v>8.2200000000000004E-19</v>
       </c>
-      <c r="C132" s="4">
-        <v>1.8200000000000001E-21</v>
+      <c r="C132" s="9">
+        <v>1.0499999999999999E-19</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -4842,8 +4843,8 @@
       <c r="B133" s="4">
         <v>8.2200000000000004E-19</v>
       </c>
-      <c r="C133" s="4">
-        <v>1.89E-21</v>
+      <c r="C133" s="9">
+        <v>1.0499999999999999E-19</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -4876,8 +4877,8 @@
       <c r="B134" s="4">
         <v>8.2700000000000001E-19</v>
       </c>
-      <c r="C134" s="4">
-        <v>1.4699999999999999E-21</v>
+      <c r="C134" s="9">
+        <v>1.0499999999999999E-19</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -4910,8 +4911,8 @@
       <c r="B135" s="4">
         <v>8.3499999999999999E-19</v>
       </c>
-      <c r="C135" s="4">
-        <v>1.4900000000000001E-21</v>
+      <c r="C135" s="9">
+        <v>1.06E-19</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -4944,8 +4945,8 @@
       <c r="B136" s="4">
         <v>8.2500000000000004E-19</v>
       </c>
-      <c r="C136" s="4">
-        <v>1.56E-21</v>
+      <c r="C136" s="9">
+        <v>1.0499999999999999E-19</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -4978,8 +4979,8 @@
       <c r="B137" s="4">
         <v>8.1399999999999996E-19</v>
       </c>
-      <c r="C137" s="4">
-        <v>1.7500000000000002E-21</v>
+      <c r="C137" s="9">
+        <v>1.04E-19</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -5012,8 +5013,8 @@
       <c r="B138" s="4">
         <v>8.1699999999999997E-19</v>
       </c>
-      <c r="C138" s="4">
-        <v>1.95E-21</v>
+      <c r="C138" s="9">
+        <v>1.04E-19</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -5046,8 +5047,8 @@
       <c r="B139" s="4">
         <v>8.1999999999999997E-19</v>
       </c>
-      <c r="C139" s="4">
-        <v>2.0299999999999998E-21</v>
+      <c r="C139" s="9">
+        <v>1.04E-19</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -5080,8 +5081,8 @@
       <c r="B140" s="4">
         <v>8.1300000000000003E-19</v>
       </c>
-      <c r="C140" s="4">
-        <v>2.27E-21</v>
+      <c r="C140" s="9">
+        <v>1.04E-19</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -5114,8 +5115,8 @@
       <c r="B141" s="4">
         <v>8.2899999999999998E-19</v>
       </c>
-      <c r="C141" s="4">
-        <v>4.6799999999999998E-21</v>
+      <c r="C141" s="9">
+        <v>1.0900000000000001E-19</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -5148,8 +5149,8 @@
       <c r="B142" s="4">
         <v>8.3600000000000002E-19</v>
       </c>
-      <c r="C142" s="4">
-        <v>6.5400000000000001E-21</v>
+      <c r="C142" s="9">
+        <v>1.0999999999999999E-19</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -5182,8 +5183,8 @@
       <c r="B143" s="4">
         <v>8.1099999999999996E-19</v>
       </c>
-      <c r="C143" s="4">
-        <v>4.6500000000000001E-21</v>
+      <c r="C143" s="9">
+        <v>1.06E-19</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -5216,8 +5217,8 @@
       <c r="B144" s="4">
         <v>8.15E-19</v>
       </c>
-      <c r="C144" s="4">
-        <v>4.4999999999999997E-21</v>
+      <c r="C144" s="9">
+        <v>1.07E-19</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -5250,8 +5251,8 @@
       <c r="B145" s="4">
         <v>8.1300000000000003E-19</v>
       </c>
-      <c r="C145" s="4">
-        <v>4.5800000000000002E-21</v>
+      <c r="C145" s="9">
+        <v>1.06E-19</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -5284,8 +5285,8 @@
       <c r="B146" s="4">
         <v>8.1000000000000002E-19</v>
       </c>
-      <c r="C146" s="4">
-        <v>4.5200000000000002E-21</v>
+      <c r="C146" s="9">
+        <v>1.06E-19</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -5318,8 +5319,8 @@
       <c r="B147" s="4">
         <v>7.9600000000000004E-19</v>
       </c>
-      <c r="C147" s="4">
-        <v>4.5300000000000001E-21</v>
+      <c r="C147" s="9">
+        <v>1.04E-19</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -5352,8 +5353,8 @@
       <c r="B148" s="4">
         <v>7.92E-19</v>
       </c>
-      <c r="C148" s="4">
-        <v>5.7599999999999997E-21</v>
+      <c r="C148" s="9">
+        <v>1.04E-19</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -5386,8 +5387,8 @@
       <c r="B149" s="4">
         <v>7.9000000000000003E-19</v>
       </c>
-      <c r="C149" s="4">
-        <v>6.8100000000000007E-21</v>
+      <c r="C149" s="9">
+        <v>1.04E-19</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -5420,8 +5421,8 @@
       <c r="B150" s="4">
         <v>7.7999999999999999E-19</v>
       </c>
-      <c r="C150" s="4">
-        <v>6.11E-21</v>
+      <c r="C150" s="9">
+        <v>1.02E-19</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -5454,8 +5455,8 @@
       <c r="B151" s="4">
         <v>7.7599999999999995E-19</v>
       </c>
-      <c r="C151" s="4">
-        <v>7.0700000000000006E-21</v>
+      <c r="C151" s="9">
+        <v>1.02E-19</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -5488,8 +5489,8 @@
       <c r="B152" s="4">
         <v>7.7000000000000004E-19</v>
       </c>
-      <c r="C152" s="4">
-        <v>6.2599999999999997E-21</v>
+      <c r="C152" s="9">
+        <v>1.0099999999999999E-19</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -5522,8 +5523,8 @@
       <c r="B153" s="4">
         <v>7.7599999999999995E-19</v>
       </c>
-      <c r="C153" s="4">
-        <v>6.1799999999999999E-21</v>
+      <c r="C153" s="9">
+        <v>1.02E-19</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -5556,8 +5557,8 @@
       <c r="B154" s="4">
         <v>7.5800000000000003E-19</v>
       </c>
-      <c r="C154" s="4">
-        <v>6.1199999999999999E-21</v>
+      <c r="C154" s="9">
+        <v>9.9299999999999998E-20</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -5590,8 +5591,8 @@
       <c r="B155" s="4">
         <v>7.5599999999999996E-19</v>
       </c>
-      <c r="C155" s="4">
-        <v>6.4200000000000001E-21</v>
+      <c r="C155" s="9">
+        <v>9.9100000000000004E-20</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -5624,8 +5625,8 @@
       <c r="B156" s="4">
         <v>7.5200000000000002E-19</v>
       </c>
-      <c r="C156" s="4">
-        <v>5.9899999999999999E-21</v>
+      <c r="C156" s="9">
+        <v>9.8499999999999996E-20</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -5658,8 +5659,8 @@
       <c r="B157" s="4">
         <v>7.5200000000000002E-19</v>
       </c>
-      <c r="C157" s="4">
-        <v>6.6000000000000002E-21</v>
+      <c r="C157" s="9">
+        <v>9.8599999999999999E-20</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -5692,8 +5693,8 @@
       <c r="B158" s="4">
         <v>7.3800000000000004E-19</v>
       </c>
-      <c r="C158" s="4">
-        <v>5.6500000000000002E-21</v>
+      <c r="C158" s="9">
+        <v>9.6699999999999996E-20</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -5726,8 +5727,8 @@
       <c r="B159" s="4">
         <v>7.4199999999999998E-19</v>
       </c>
-      <c r="C159" s="4">
-        <v>6.1399999999999997E-21</v>
+      <c r="C159" s="9">
+        <v>9.7200000000000001E-20</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -5760,8 +5761,8 @@
       <c r="B160" s="4">
         <v>7.3599999999999997E-19</v>
       </c>
-      <c r="C160" s="4">
-        <v>6.1199999999999999E-21</v>
+      <c r="C160" s="9">
+        <v>9.6399999999999998E-20</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -5794,8 +5795,8 @@
       <c r="B161" s="4">
         <v>7.28E-19</v>
       </c>
-      <c r="C161" s="4">
-        <v>6.0200000000000003E-21</v>
+      <c r="C161" s="9">
+        <v>9.5400000000000001E-20</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -5828,8 +5829,8 @@
       <c r="B162" s="4">
         <v>7.28E-19</v>
       </c>
-      <c r="C162" s="4">
-        <v>5.9800000000000001E-21</v>
+      <c r="C162" s="9">
+        <v>9.5400000000000001E-20</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -5862,8 +5863,8 @@
       <c r="B163" s="4">
         <v>7.1700000000000002E-19</v>
       </c>
-      <c r="C163" s="4">
-        <v>5.9800000000000001E-21</v>
+      <c r="C163" s="9">
+        <v>9.4000000000000003E-20</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -5896,8 +5897,8 @@
       <c r="B164" s="4">
         <v>7.2399999999999996E-19</v>
       </c>
-      <c r="C164" s="4">
-        <v>5.92E-21</v>
+      <c r="C164" s="9">
+        <v>9.4899999999999997E-20</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -5930,8 +5931,8 @@
       <c r="B165" s="4">
         <v>7.2199999999999999E-19</v>
       </c>
-      <c r="C165" s="4">
-        <v>5.8300000000000003E-21</v>
+      <c r="C165" s="9">
+        <v>9.4599999999999999E-20</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -5964,8 +5965,8 @@
       <c r="B166" s="4">
         <v>7.1500000000000005E-19</v>
       </c>
-      <c r="C166" s="4">
-        <v>5.4999999999999998E-21</v>
+      <c r="C166" s="9">
+        <v>9.3700000000000005E-20</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -5998,8 +5999,8 @@
       <c r="B167" s="4">
         <v>7.1299999999999998E-19</v>
       </c>
-      <c r="C167" s="4">
-        <v>5.7900000000000001E-21</v>
+      <c r="C167" s="9">
+        <v>9.3399999999999995E-20</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -6032,8 +6033,8 @@
       <c r="B168" s="4">
         <v>7.0099999999999997E-19</v>
       </c>
-      <c r="C168" s="4">
-        <v>5.6999999999999996E-21</v>
+      <c r="C168" s="9">
+        <v>9.1800000000000002E-20</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -6066,8 +6067,8 @@
       <c r="B169" s="4">
         <v>7.1100000000000001E-19</v>
       </c>
-      <c r="C169" s="4">
-        <v>5.4299999999999999E-21</v>
+      <c r="C169" s="9">
+        <v>9.3099999999999997E-20</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -6100,8 +6101,8 @@
       <c r="B170" s="4">
         <v>7.0999999999999998E-19</v>
       </c>
-      <c r="C170" s="4">
-        <v>5.92E-21</v>
+      <c r="C170" s="9">
+        <v>9.3000000000000006E-20</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -6134,8 +6135,8 @@
       <c r="B171" s="4">
         <v>7.05E-19</v>
       </c>
-      <c r="C171" s="4">
-        <v>7.3399999999999996E-21</v>
+      <c r="C171" s="9">
+        <v>9.2500000000000001E-20</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
@@ -6168,8 +6169,8 @@
       <c r="B172" s="4">
         <v>7.05E-19</v>
       </c>
-      <c r="C172" s="4">
-        <v>1.6700000000000001E-20</v>
+      <c r="C172" s="9">
+        <v>9.3700000000000005E-20</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -6202,8 +6203,8 @@
       <c r="B173" s="4">
         <v>7.0999999999999998E-19</v>
       </c>
-      <c r="C173" s="4">
-        <v>1.8600000000000001E-20</v>
+      <c r="C173" s="9">
+        <v>9.4700000000000002E-20</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -6236,8 +6237,8 @@
       <c r="B174" s="4">
         <v>6.5199999999999998E-19</v>
       </c>
-      <c r="C174" s="4">
-        <v>1.8099999999999999E-20</v>
+      <c r="C174" s="9">
+        <v>8.7200000000000006E-20</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -6270,8 +6271,8 @@
       <c r="B175" s="4">
         <v>6.7E-19</v>
       </c>
-      <c r="C175" s="4">
-        <v>1.54E-20</v>
+      <c r="C175" s="9">
+        <v>8.9000000000000006E-20</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -6304,8 +6305,8 @@
       <c r="B176" s="4">
         <v>6.8000000000000004E-19</v>
       </c>
-      <c r="C176" s="4">
-        <v>1.73E-20</v>
+      <c r="C176" s="9">
+        <v>9.0599999999999998E-20</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -6338,8 +6339,8 @@
       <c r="B177" s="4">
         <v>6.8000000000000004E-19</v>
       </c>
-      <c r="C177" s="4">
-        <v>1.4900000000000001E-20</v>
+      <c r="C177" s="9">
+        <v>9.0199999999999997E-20</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
@@ -6372,8 +6373,8 @@
       <c r="B178" s="4">
         <v>6.7900000000000001E-19</v>
       </c>
-      <c r="C178" s="4">
-        <v>1.6099999999999999E-20</v>
+      <c r="C178" s="9">
+        <v>9.0199999999999997E-20</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
@@ -6406,8 +6407,8 @@
       <c r="B179" s="4">
         <v>6.5100000000000004E-19</v>
       </c>
-      <c r="C179" s="4">
-        <v>1.54E-20</v>
+      <c r="C179" s="9">
+        <v>8.6499999999999995E-20</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -6440,8 +6441,8 @@
       <c r="B180" s="4">
         <v>6.7E-19</v>
       </c>
-      <c r="C180" s="4">
-        <v>1.32E-20</v>
+      <c r="C180" s="9">
+        <v>8.8600000000000004E-20</v>
       </c>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
@@ -6474,8 +6475,8 @@
       <c r="B181" s="4">
         <v>6.4200000000000003E-19</v>
       </c>
-      <c r="C181" s="4">
-        <v>1.4099999999999999E-20</v>
+      <c r="C181" s="9">
+        <v>8.5099999999999996E-20</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -6508,8 +6509,8 @@
       <c r="B182" s="4">
         <v>6.3900000000000003E-19</v>
       </c>
-      <c r="C182" s="4">
-        <v>1.4000000000000001E-20</v>
+      <c r="C182" s="9">
+        <v>8.4699999999999995E-20</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -6542,8 +6543,8 @@
       <c r="B183" s="4">
         <v>6.6099999999999999E-19</v>
       </c>
-      <c r="C183" s="4">
-        <v>1.22E-20</v>
+      <c r="C183" s="9">
+        <v>8.7299999999999997E-20</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -6576,8 +6577,8 @@
       <c r="B184" s="4">
         <v>6.6399999999999999E-19</v>
       </c>
-      <c r="C184" s="4">
-        <v>1.35E-20</v>
+      <c r="C184" s="9">
+        <v>8.7900000000000005E-20</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -6610,8 +6611,8 @@
       <c r="B185" s="4">
         <v>6.3099999999999996E-19</v>
       </c>
-      <c r="C185" s="4">
-        <v>1.15E-20</v>
+      <c r="C185" s="9">
+        <v>8.3299999999999997E-20</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -6644,8 +6645,8 @@
       <c r="B186" s="4">
         <v>6.5400000000000004E-19</v>
       </c>
-      <c r="C186" s="4">
-        <v>1.25E-20</v>
+      <c r="C186" s="9">
+        <v>8.6400000000000003E-20</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -6678,8 +6679,8 @@
       <c r="B187" s="4">
         <v>6.2700000000000001E-19</v>
       </c>
-      <c r="C187" s="4">
-        <v>1.1899999999999999E-20</v>
+      <c r="C187" s="9">
+        <v>8.2800000000000004E-20</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -6712,8 +6713,8 @@
       <c r="B188" s="4">
         <v>6.5400000000000004E-19</v>
       </c>
-      <c r="C188" s="4">
-        <v>1.2E-20</v>
+      <c r="C188" s="9">
+        <v>8.6400000000000003E-20</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -6746,8 +6747,8 @@
       <c r="B189" s="4">
         <v>6.4800000000000004E-19</v>
       </c>
-      <c r="C189" s="4">
-        <v>1.02E-20</v>
+      <c r="C189" s="9">
+        <v>8.5300000000000003E-20</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -6780,8 +6781,8 @@
       <c r="B190" s="4">
         <v>6.3099999999999996E-19</v>
       </c>
-      <c r="C190" s="4">
-        <v>1.1E-20</v>
+      <c r="C190" s="9">
+        <v>8.3200000000000006E-20</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -6814,8 +6815,8 @@
       <c r="B191" s="4">
         <v>6.5300000000000001E-19</v>
       </c>
-      <c r="C191" s="4">
-        <v>1.0900000000000001E-20</v>
+      <c r="C191" s="9">
+        <v>8.6100000000000006E-20</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
@@ -6848,8 +6849,8 @@
       <c r="B192" s="4">
         <v>6.3000000000000002E-19</v>
       </c>
-      <c r="C192" s="4">
-        <v>1.0400000000000001E-20</v>
+      <c r="C192" s="9">
+        <v>8.2999999999999999E-20</v>
       </c>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
@@ -6882,8 +6883,8 @@
       <c r="B193" s="4">
         <v>6.3000000000000002E-19</v>
       </c>
-      <c r="C193" s="4">
-        <v>1.02E-20</v>
+      <c r="C193" s="9">
+        <v>8.2999999999999999E-20</v>
       </c>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
@@ -6916,8 +6917,8 @@
       <c r="B194" s="4">
         <v>6.4599999999999997E-19</v>
       </c>
-      <c r="C194" s="4">
-        <v>9.2E-21</v>
+      <c r="C194" s="9">
+        <v>8.5000000000000005E-20</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
@@ -6950,8 +6951,8 @@
       <c r="B195" s="4">
         <v>6.2299999999999998E-19</v>
       </c>
-      <c r="C195" s="4">
-        <v>9.8200000000000001E-21</v>
+      <c r="C195" s="9">
+        <v>8.2100000000000005E-20</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
@@ -6984,8 +6985,8 @@
       <c r="B196" s="4">
         <v>6.2700000000000001E-19</v>
       </c>
-      <c r="C196" s="4">
-        <v>9.6100000000000003E-21</v>
+      <c r="C196" s="9">
+        <v>8.2599999999999998E-20</v>
       </c>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
@@ -7018,8 +7019,8 @@
       <c r="B197" s="4">
         <v>6.2100000000000001E-19</v>
       </c>
-      <c r="C197" s="4">
-        <v>9.51E-21</v>
+      <c r="C197" s="9">
+        <v>8.1799999999999995E-20</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
@@ -7052,8 +7053,8 @@
       <c r="B198" s="4">
         <v>6.2700000000000001E-19</v>
       </c>
-      <c r="C198" s="4">
-        <v>8.3000000000000002E-21</v>
+      <c r="C198" s="9">
+        <v>8.2400000000000003E-20</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
@@ -7086,8 +7087,8 @@
       <c r="B199" s="4">
         <v>6.2700000000000001E-19</v>
       </c>
-      <c r="C199" s="4">
-        <v>8.8799999999999993E-21</v>
+      <c r="C199" s="9">
+        <v>8.2499999999999994E-20</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
@@ -7120,8 +7121,8 @@
       <c r="B200" s="4">
         <v>6.2299999999999998E-19</v>
       </c>
-      <c r="C200" s="4">
-        <v>9.6199999999999995E-21</v>
+      <c r="C200" s="9">
+        <v>8.2000000000000002E-20</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
@@ -7154,8 +7155,8 @@
       <c r="B201" s="4">
         <v>6.1699999999999997E-19</v>
       </c>
-      <c r="C201" s="4">
-        <v>7.7399999999999994E-21</v>
+      <c r="C201" s="9">
+        <v>8.1099999999999996E-20</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
@@ -7188,8 +7189,8 @@
       <c r="B202" s="4">
         <v>6.1399999999999997E-19</v>
       </c>
-      <c r="C202" s="4">
-        <v>8.25E-21</v>
+      <c r="C202" s="9">
+        <v>8.0699999999999995E-20</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
@@ -7222,8 +7223,8 @@
       <c r="B203" s="4">
         <v>6.2299999999999998E-19</v>
       </c>
-      <c r="C203" s="4">
-        <v>8.06E-21</v>
+      <c r="C203" s="9">
+        <v>8.1899999999999999E-20</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
@@ -7256,8 +7257,8 @@
       <c r="B204" s="4">
         <v>5.7800000000000003E-19</v>
       </c>
-      <c r="C204" s="4">
-        <v>2.4600000000000001E-20</v>
+      <c r="C204" s="9">
+        <v>7.9500000000000003E-20</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
@@ -7290,8 +7291,8 @@
       <c r="B205" s="4">
         <v>5.9999999999999999E-19</v>
       </c>
-      <c r="C205" s="4">
-        <v>2.3899999999999999E-20</v>
+      <c r="C205" s="9">
+        <v>8.2000000000000002E-20</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
@@ -7324,8 +7325,8 @@
       <c r="B206" s="4">
         <v>6.2100000000000001E-19</v>
       </c>
-      <c r="C206" s="4">
-        <v>2.33E-20</v>
+      <c r="C206" s="9">
+        <v>8.4500000000000001E-20</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
@@ -7358,8 +7359,8 @@
       <c r="B207" s="4">
         <v>6.1900000000000004E-19</v>
       </c>
-      <c r="C207" s="4">
-        <v>2.2600000000000001E-20</v>
+      <c r="C207" s="9">
+        <v>8.3999999999999996E-20</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
@@ -7392,8 +7393,8 @@
       <c r="B208" s="4">
         <v>6.0100000000000002E-19</v>
       </c>
-      <c r="C208" s="4">
-        <v>1.9600000000000001E-20</v>
+      <c r="C208" s="9">
+        <v>8.1000000000000005E-20</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
@@ -7426,8 +7427,8 @@
       <c r="B209" s="4">
         <v>5.86E-19</v>
       </c>
-      <c r="C209" s="4">
-        <v>2.1099999999999999E-20</v>
+      <c r="C209" s="9">
+        <v>7.9500000000000003E-20</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
@@ -7460,8 +7461,8 @@
       <c r="B210" s="4">
         <v>6.0700000000000002E-19</v>
       </c>
-      <c r="C210" s="4">
-        <v>2.3799999999999999E-20</v>
+      <c r="C210" s="9">
+        <v>8.2899999999999996E-20</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
@@ -7494,8 +7495,8 @@
       <c r="B211" s="4">
         <v>6.12E-19</v>
       </c>
-      <c r="C211" s="4">
-        <v>1.7999999999999999E-20</v>
+      <c r="C211" s="9">
+        <v>8.2000000000000002E-20</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
@@ -7528,8 +7529,8 @@
       <c r="B212" s="4">
         <v>6.2599999999999998E-19</v>
       </c>
-      <c r="C212" s="4">
-        <v>2.2500000000000001E-20</v>
+      <c r="C212" s="9">
+        <v>8.4900000000000002E-20</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
@@ -7562,8 +7563,8 @@
       <c r="B213" s="4">
         <v>5.83E-19</v>
       </c>
-      <c r="C213" s="4">
-        <v>1.6999999999999999E-20</v>
+      <c r="C213" s="9">
+        <v>7.8100000000000005E-20</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
@@ -7596,8 +7597,8 @@
       <c r="B214" s="4">
         <v>5.8900000000000001E-19</v>
       </c>
-      <c r="C214" s="4">
-        <v>1.83E-20</v>
+      <c r="C214" s="9">
+        <v>7.9200000000000005E-20</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
@@ -7630,8 +7631,8 @@
       <c r="B215" s="4">
         <v>5.9099999999999998E-19</v>
       </c>
-      <c r="C215" s="4">
-        <v>1.7800000000000001E-20</v>
+      <c r="C215" s="9">
+        <v>7.9299999999999996E-20</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
@@ -7664,8 +7665,8 @@
       <c r="B216" s="4">
         <v>5.8900000000000001E-19</v>
       </c>
-      <c r="C216" s="4">
-        <v>1.74E-20</v>
+      <c r="C216" s="9">
+        <v>7.8999999999999999E-20</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
@@ -7698,8 +7699,8 @@
       <c r="B217" s="4">
         <v>5.83E-19</v>
       </c>
-      <c r="C217" s="4">
-        <v>1.6999999999999999E-20</v>
+      <c r="C217" s="9">
+        <v>7.8100000000000005E-20</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -7732,8 +7733,8 @@
       <c r="B218" s="4">
         <v>5.6100000000000004E-19</v>
       </c>
-      <c r="C218" s="4">
-        <v>1.65E-20</v>
+      <c r="C218" s="9">
+        <v>7.5200000000000005E-20</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
@@ -7766,8 +7767,8 @@
       <c r="B219" s="4">
         <v>5.86E-19</v>
       </c>
-      <c r="C219" s="4">
-        <v>1.6099999999999999E-20</v>
+      <c r="C219" s="9">
+        <v>7.8299999999999999E-20</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
@@ -7800,8 +7801,8 @@
       <c r="B220" s="4">
         <v>5.7500000000000002E-19</v>
       </c>
-      <c r="C220" s="4">
-        <v>1.5700000000000001E-20</v>
+      <c r="C220" s="9">
+        <v>7.6799999999999998E-20</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -7834,8 +7835,8 @@
       <c r="B221" s="4">
         <v>5.7899999999999996E-19</v>
       </c>
-      <c r="C221" s="4">
-        <v>1.5299999999999999E-20</v>
+      <c r="C221" s="9">
+        <v>7.7199999999999999E-20</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
@@ -7868,8 +7869,8 @@
       <c r="B222" s="4">
         <v>5.8199999999999997E-19</v>
       </c>
-      <c r="C222" s="4">
-        <v>1.4900000000000001E-20</v>
+      <c r="C222" s="9">
+        <v>7.76E-20</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -7902,8 +7903,8 @@
       <c r="B223" s="4">
         <v>5.7699999999999999E-19</v>
       </c>
-      <c r="C223" s="4">
-        <v>1.45E-20</v>
+      <c r="C223" s="9">
+        <v>7.6799999999999998E-20</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
@@ -7936,8 +7937,8 @@
       <c r="B224" s="4">
         <v>5.7299999999999996E-19</v>
       </c>
-      <c r="C224" s="4">
-        <v>1.4199999999999999E-20</v>
+      <c r="C224" s="9">
+        <v>7.6300000000000005E-20</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -7970,8 +7971,8 @@
       <c r="B225" s="4">
         <v>5.5599999999999997E-19</v>
       </c>
-      <c r="C225" s="4">
-        <v>1.3800000000000001E-20</v>
+      <c r="C225" s="9">
+        <v>7.4000000000000001E-20</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -8004,8 +8005,8 @@
       <c r="B226" s="4">
         <v>5.6300000000000001E-19</v>
       </c>
-      <c r="C226" s="4">
-        <v>1.35E-20</v>
+      <c r="C226" s="9">
+        <v>7.4800000000000004E-20</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
@@ -8038,8 +8039,8 @@
       <c r="B227" s="4">
         <v>5.7399999999999999E-19</v>
       </c>
-      <c r="C227" s="4">
-        <v>1.32E-20</v>
+      <c r="C227" s="9">
+        <v>7.6200000000000002E-20</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
@@ -8072,8 +8073,8 @@
       <c r="B228" s="4">
         <v>5.6600000000000001E-19</v>
       </c>
-      <c r="C228" s="4">
-        <v>1.2800000000000001E-20</v>
+      <c r="C228" s="9">
+        <v>7.5100000000000001E-20</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -8106,8 +8107,8 @@
       <c r="B229" s="4">
         <v>5.7599999999999996E-19</v>
       </c>
-      <c r="C229" s="4">
-        <v>1.25E-20</v>
+      <c r="C229" s="9">
+        <v>7.6399999999999996E-20</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
@@ -8140,8 +8141,8 @@
       <c r="B230" s="4">
         <v>5.6700000000000005E-19</v>
       </c>
-      <c r="C230" s="4">
-        <v>1.2300000000000001E-20</v>
+      <c r="C230" s="9">
+        <v>7.5200000000000005E-20</v>
       </c>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
@@ -8174,8 +8175,8 @@
       <c r="B231" s="4">
         <v>5.9399999999999998E-19</v>
       </c>
-      <c r="C231" s="4">
-        <v>1.2E-20</v>
+      <c r="C231" s="9">
+        <v>7.8599999999999997E-20</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
@@ -8208,8 +8209,8 @@
       <c r="B232" s="4">
         <v>5.51E-19</v>
       </c>
-      <c r="C232" s="4">
-        <v>1.17E-20</v>
+      <c r="C232" s="9">
+        <v>7.3000000000000004E-20</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
